--- a/Research/资产配置研究/data/1090_all_wgts.xlsx
+++ b/Research/资产配置研究/data/1090_all_wgts.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1732"/>
+  <dimension ref="A1:C1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,10 +457,10 @@
         <v>41285</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="C7">
-        <v>0.875</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>41288</v>
       </c>
       <c r="B8">
-        <v>0.1228056436107626</v>
+        <v>0.1218207544102122</v>
       </c>
       <c r="C8">
-        <v>0.8771943563892374</v>
+        <v>0.8781792455897878</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>41289</v>
       </c>
       <c r="B9">
-        <v>0.1267744685076791</v>
+        <v>0.1257623130911746</v>
       </c>
       <c r="C9">
-        <v>0.8732255314923209</v>
+        <v>0.8742376869088255</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -490,10 +490,10 @@
         <v>41290</v>
       </c>
       <c r="B10">
-        <v>0.1278540902822214</v>
+        <v>0.126834567249617</v>
       </c>
       <c r="C10">
-        <v>0.8721459097177786</v>
+        <v>0.8731654327503829</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -501,10 +501,10 @@
         <v>41291</v>
       </c>
       <c r="B11">
-        <v>0.1272371043305417</v>
+        <v>0.1262217891764567</v>
       </c>
       <c r="C11">
-        <v>0.8727628956694582</v>
+        <v>0.8737782108235431</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -512,10 +512,10 @@
         <v>41292</v>
       </c>
       <c r="B12">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="C12">
-        <v>0.886</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -523,10 +523,10 @@
         <v>41295</v>
       </c>
       <c r="B13">
-        <v>0.1155904148869825</v>
+        <v>0.1145782680353068</v>
       </c>
       <c r="C13">
-        <v>0.8844095851130174</v>
+        <v>0.8854217319646932</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -534,10 +534,10 @@
         <v>41296</v>
       </c>
       <c r="B14">
-        <v>0.1161950765802629</v>
+        <v>0.1151783246436353</v>
       </c>
       <c r="C14">
-        <v>0.8838049234197372</v>
+        <v>0.8848216753563648</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -545,10 +545,10 @@
         <v>41297</v>
       </c>
       <c r="B15">
-        <v>0.1153305467837154</v>
+        <v>0.1143203812869555</v>
       </c>
       <c r="C15">
-        <v>0.8846694532162847</v>
+        <v>0.8856796187130446</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -556,10 +556,10 @@
         <v>41298</v>
       </c>
       <c r="B16">
-        <v>0.1156605252972354</v>
+        <v>0.1146478441185898</v>
       </c>
       <c r="C16">
-        <v>0.8843394747027647</v>
+        <v>0.8853521558814103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -567,10 +567,10 @@
         <v>41299</v>
       </c>
       <c r="B17">
-        <v>0.1144168946613659</v>
+        <v>0.1134137058064542</v>
       </c>
       <c r="C17">
-        <v>0.8855831053386342</v>
+        <v>0.8865862941935457</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -578,10 +578,10 @@
         <v>41302</v>
       </c>
       <c r="B18">
-        <v>0.1140107585858498</v>
+        <v>0.1130106762497839</v>
       </c>
       <c r="C18">
-        <v>0.8859892414141501</v>
+        <v>0.886989323750216</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -589,10 +589,10 @@
         <v>41303</v>
       </c>
       <c r="B19">
-        <v>0.1169884327828766</v>
+        <v>0.1159656495673923</v>
       </c>
       <c r="C19">
-        <v>0.8830115672171235</v>
+        <v>0.8840343504326077</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -600,10 +600,10 @@
         <v>41304</v>
       </c>
       <c r="B20">
-        <v>0.1179360299603209</v>
+        <v>0.1169060590998235</v>
       </c>
       <c r="C20">
-        <v>0.8820639700396791</v>
+        <v>0.8830939409001766</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -611,10 +611,10 @@
         <v>41305</v>
       </c>
       <c r="B21">
-        <v>0.1184425668904623</v>
+        <v>0.1174087611204914</v>
       </c>
       <c r="C21">
-        <v>0.8815574331095377</v>
+        <v>0.8825912388795085</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -622,10 +622,10 @@
         <v>41306</v>
       </c>
       <c r="B22">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="C22">
-        <v>0.896</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -633,10 +633,10 @@
         <v>41309</v>
       </c>
       <c r="B23">
-        <v>0.1056543302895922</v>
+        <v>0.1066683435887394</v>
       </c>
       <c r="C23">
-        <v>0.8943456697104079</v>
+        <v>0.8933316564112606</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -644,10 +644,10 @@
         <v>41310</v>
       </c>
       <c r="B24">
-        <v>0.1055717565313626</v>
+        <v>0.1065850717793599</v>
       </c>
       <c r="C24">
-        <v>0.8944282434686374</v>
+        <v>0.8934149282206399</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -655,10 +655,10 @@
         <v>41311</v>
       </c>
       <c r="B25">
-        <v>0.1063673864096669</v>
+        <v>0.1073874215090489</v>
       </c>
       <c r="C25">
-        <v>0.8936326135903332</v>
+        <v>0.8926125784909512</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -666,10 +666,10 @@
         <v>41312</v>
       </c>
       <c r="B26">
-        <v>0.1066453891766945</v>
+        <v>0.1076677690439615</v>
       </c>
       <c r="C26">
-        <v>0.8933546108233055</v>
+        <v>0.8923322309560384</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -677,10 +677,10 @@
         <v>41313</v>
       </c>
       <c r="B27">
-        <v>0.1062215625142613</v>
+        <v>0.1072403670175386</v>
       </c>
       <c r="C27">
-        <v>0.8937784374857387</v>
+        <v>0.8927596329824614</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -688,10 +688,10 @@
         <v>41323</v>
       </c>
       <c r="B28">
-        <v>0.1067988709135236</v>
+        <v>0.1078225445801903</v>
       </c>
       <c r="C28">
-        <v>0.8932011290864764</v>
+        <v>0.8921774554198096</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -699,10 +699,10 @@
         <v>41324</v>
       </c>
       <c r="B29">
-        <v>0.1058869823531054</v>
+        <v>0.1069029616219316</v>
       </c>
       <c r="C29">
-        <v>0.8941130176468947</v>
+        <v>0.8930970383780683</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -710,10 +710,10 @@
         <v>41325</v>
       </c>
       <c r="B30">
-        <v>0.1040918308243355</v>
+        <v>0.1050926102465279</v>
       </c>
       <c r="C30">
-        <v>0.8959081691756645</v>
+        <v>0.8949073897534721</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -721,10 +721,10 @@
         <v>41326</v>
       </c>
       <c r="B31">
-        <v>0.1049394779504701</v>
+        <v>0.1059474432337461</v>
       </c>
       <c r="C31">
-        <v>0.8950605220495299</v>
+        <v>0.8940525567662538</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -787,10 +787,10 @@
         <v>41334</v>
       </c>
       <c r="B37">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="C37">
-        <v>0.888</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -798,10 +798,10 @@
         <v>41337</v>
       </c>
       <c r="B38">
-        <v>0.1121321126108319</v>
+        <v>0.11313314190704</v>
       </c>
       <c r="C38">
-        <v>0.887867887389168</v>
+        <v>0.8868668580929601</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -809,10 +809,10 @@
         <v>41338</v>
       </c>
       <c r="B39">
-        <v>0.107696835341029</v>
+        <v>0.1086631157571155</v>
       </c>
       <c r="C39">
-        <v>0.892303164658971</v>
+        <v>0.8913368842428845</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -820,10 +820,10 @@
         <v>41339</v>
       </c>
       <c r="B40">
-        <v>0.1103902285533323</v>
+        <v>0.1113776583265941</v>
       </c>
       <c r="C40">
-        <v>0.8896097714466678</v>
+        <v>0.8886223416734059</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -831,10 +831,10 @@
         <v>41340</v>
       </c>
       <c r="B41">
-        <v>0.1115057318075507</v>
+        <v>0.1125018778012051</v>
       </c>
       <c r="C41">
-        <v>0.8884942681924494</v>
+        <v>0.8874981221987949</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -842,10 +842,10 @@
         <v>41341</v>
       </c>
       <c r="B42">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="C42">
-        <v>0.894</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -853,10 +853,10 @@
         <v>41344</v>
       </c>
       <c r="B43">
-        <v>0.1053953428844346</v>
+        <v>0.1063903174127484</v>
       </c>
       <c r="C43">
-        <v>0.8946046571155655</v>
+        <v>0.8936096825872516</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -864,10 +864,10 @@
         <v>41345</v>
       </c>
       <c r="B44">
-        <v>0.1049873611294956</v>
+        <v>0.1059789404132351</v>
       </c>
       <c r="C44">
-        <v>0.8950126388705043</v>
+        <v>0.8940210595867649</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -875,10 +875,10 @@
         <v>41346</v>
       </c>
       <c r="B45">
-        <v>0.1033982213411874</v>
+        <v>0.10437654195385</v>
       </c>
       <c r="C45">
-        <v>0.8966017786588126</v>
+        <v>0.89562345804615</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -886,10 +886,10 @@
         <v>41347</v>
       </c>
       <c r="B46">
-        <v>0.1024050663909109</v>
+        <v>0.1033750735231512</v>
       </c>
       <c r="C46">
-        <v>0.897594933609089</v>
+        <v>0.8966249264768488</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>41362</v>
       </c>
       <c r="B57">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="C57">
-        <v>0.877</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>41365</v>
       </c>
       <c r="B58">
-        <v>0.1227857459747218</v>
+        <v>0.1237842499330947</v>
       </c>
       <c r="C58">
-        <v>0.8772142540252781</v>
+        <v>0.8762157500669053</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>41366</v>
       </c>
       <c r="B59">
-        <v>0.1228140948979257</v>
+        <v>0.123812796853559</v>
       </c>
       <c r="C59">
-        <v>0.8771859051020743</v>
+        <v>0.8761872031464409</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>41367</v>
       </c>
       <c r="B60">
-        <v>0.1221696267632665</v>
+        <v>0.1231638238562243</v>
       </c>
       <c r="C60">
-        <v>0.8778303732367334</v>
+        <v>0.8768361761437757</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>41372</v>
       </c>
       <c r="B61">
-        <v>0.1217194075647454</v>
+        <v>0.1227104530033909</v>
       </c>
       <c r="C61">
-        <v>0.8782805924352547</v>
+        <v>0.8772895469966091</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2657,10 +2657,10 @@
         <v>41593</v>
       </c>
       <c r="B207">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="C207">
-        <v>0.875</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2668,10 +2668,10 @@
         <v>41596</v>
       </c>
       <c r="B208">
-        <v>0.1276361984150864</v>
+        <v>0.1286541871295915</v>
       </c>
       <c r="C208">
-        <v>0.8723638015849136</v>
+        <v>0.8713458128704086</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2679,10 +2679,10 @@
         <v>41597</v>
       </c>
       <c r="B209">
-        <v>0.1311635485796902</v>
+        <v>0.1322054068705198</v>
       </c>
       <c r="C209">
-        <v>0.8688364514203099</v>
+        <v>0.8677945931294802</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2690,10 +2690,10 @@
         <v>41598</v>
       </c>
       <c r="B210">
-        <v>0.130844039861402</v>
+        <v>0.1318837454706649</v>
       </c>
       <c r="C210">
-        <v>0.869155960138598</v>
+        <v>0.8681162545293352</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2701,10 +2701,10 @@
         <v>41599</v>
       </c>
       <c r="B211">
-        <v>0.1317691067850175</v>
+        <v>0.1328150398524412</v>
       </c>
       <c r="C211">
-        <v>0.8682308932149826</v>
+        <v>0.8671849601475587</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3042,10 +3042,10 @@
         <v>41645</v>
       </c>
       <c r="B242">
-        <v>0.156</v>
+        <v>0.155</v>
       </c>
       <c r="C242">
-        <v>0.844</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3053,10 +3053,10 @@
         <v>41646</v>
       </c>
       <c r="B243">
-        <v>0.1528426845596093</v>
+        <v>0.1518592821608926</v>
       </c>
       <c r="C243">
-        <v>0.8471573154403907</v>
+        <v>0.8481407178391075</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3064,10 +3064,10 @@
         <v>41647</v>
       </c>
       <c r="B244">
-        <v>0.1529516909568023</v>
+        <v>0.1519677130150612</v>
       </c>
       <c r="C244">
-        <v>0.8470483090431977</v>
+        <v>0.8480322869849388</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3075,10 +3075,10 @@
         <v>41648</v>
       </c>
       <c r="B245">
-        <v>0.1530496272960831</v>
+        <v>0.1520651324132467</v>
       </c>
       <c r="C245">
-        <v>0.8469503727039169</v>
+        <v>0.8479348675867534</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3086,10 +3086,10 @@
         <v>41649</v>
       </c>
       <c r="B246">
-        <v>0.1517279747457267</v>
+        <v>0.1507504682102069</v>
       </c>
       <c r="C246">
-        <v>0.8482720252542733</v>
+        <v>0.849249531789793</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3097,10 +3097,10 @@
         <v>41652</v>
       </c>
       <c r="B247">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="C247">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3108,10 +3108,10 @@
         <v>41653</v>
       </c>
       <c r="B248">
-        <v>0.1602988958124276</v>
+        <v>0.1593024236651438</v>
       </c>
       <c r="C248">
-        <v>0.8397011041875725</v>
+        <v>0.8406975763348562</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>41654</v>
       </c>
       <c r="B249">
-        <v>0.161808373662721</v>
+        <v>0.1608043150338453</v>
       </c>
       <c r="C249">
-        <v>0.8381916263372789</v>
+        <v>0.8391956849661547</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>41655</v>
       </c>
       <c r="B250">
-        <v>0.1618274079220095</v>
+        <v>0.1608232538431942</v>
       </c>
       <c r="C250">
-        <v>0.8381725920779906</v>
+        <v>0.8391767461568059</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>41656</v>
       </c>
       <c r="B251">
-        <v>0.1619718141630067</v>
+        <v>0.1609669361128696</v>
       </c>
       <c r="C251">
-        <v>0.8380281858369932</v>
+        <v>0.8390330638871304</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>41659</v>
       </c>
       <c r="B252">
-        <v>0.1600233693429871</v>
+        <v>0.1590282855862388</v>
       </c>
       <c r="C252">
-        <v>0.839976630657013</v>
+        <v>0.8409717144137612</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3163,10 +3163,10 @@
         <v>41660</v>
       </c>
       <c r="B253">
-        <v>0.1590072055516301</v>
+        <v>0.1580172519588416</v>
       </c>
       <c r="C253">
-        <v>0.8409927944483698</v>
+        <v>0.8419827480411584</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3174,10 +3174,10 @@
         <v>41661</v>
       </c>
       <c r="B254">
-        <v>0.1603928170337693</v>
+        <v>0.1593958718687206</v>
       </c>
       <c r="C254">
-        <v>0.8396071829662306</v>
+        <v>0.8406041281312795</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3185,10 +3185,10 @@
         <v>41662</v>
       </c>
       <c r="B255">
-        <v>0.1637724683038389</v>
+        <v>0.1627585885899021</v>
       </c>
       <c r="C255">
-        <v>0.836227531696161</v>
+        <v>0.8372414114100979</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3196,10 +3196,10 @@
         <v>41663</v>
       </c>
       <c r="B256">
-        <v>0.1634161445945622</v>
+        <v>0.1624040423901804</v>
       </c>
       <c r="C256">
-        <v>0.8365838554054379</v>
+        <v>0.8375959576098196</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3207,10 +3207,10 @@
         <v>41666</v>
       </c>
       <c r="B257">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="C257">
-        <v>0.847</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3218,10 +3218,10 @@
         <v>41667</v>
       </c>
       <c r="B258">
-        <v>0.1515634261178604</v>
+        <v>0.150571146341502</v>
       </c>
       <c r="C258">
-        <v>0.8484365738821396</v>
+        <v>0.849428853658498</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3229,10 +3229,10 @@
         <v>41668</v>
       </c>
       <c r="B259">
-        <v>0.1514740021723034</v>
+        <v>0.150482204012274</v>
       </c>
       <c r="C259">
-        <v>0.8485259978276967</v>
+        <v>0.8495177959877259</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3240,10 +3240,10 @@
         <v>41669</v>
       </c>
       <c r="B260">
-        <v>0.1521089291168546</v>
+        <v>0.1511137140479639</v>
       </c>
       <c r="C260">
-        <v>0.8478910708831454</v>
+        <v>0.8488862859520361</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3251,10 +3251,10 @@
         <v>41677</v>
       </c>
       <c r="B261">
-        <v>0.150817324948757</v>
+        <v>0.1498290672580327</v>
       </c>
       <c r="C261">
-        <v>0.8491826750512429</v>
+        <v>0.8501709327419673</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3262,10 +3262,10 @@
         <v>41680</v>
       </c>
       <c r="B262">
-        <v>0.1515757021534677</v>
+        <v>0.1505833562708521</v>
       </c>
       <c r="C262">
-        <v>0.8484242978465322</v>
+        <v>0.8494166437291479</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3273,10 +3273,10 @@
         <v>41681</v>
       </c>
       <c r="B263">
-        <v>0.1548550394498333</v>
+        <v>0.1538451172356951</v>
       </c>
       <c r="C263">
-        <v>0.8451449605501669</v>
+        <v>0.8461548827643048</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3284,10 +3284,10 @@
         <v>41682</v>
       </c>
       <c r="B264">
-        <v>0.1556082725635992</v>
+        <v>0.1545943365441621</v>
       </c>
       <c r="C264">
-        <v>0.8443917274364008</v>
+        <v>0.845405663455838</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3295,10 +3295,10 @@
         <v>41683</v>
       </c>
       <c r="B265">
-        <v>0.1562259576245069</v>
+        <v>0.1552087366037515</v>
       </c>
       <c r="C265">
-        <v>0.8437740423754931</v>
+        <v>0.8447912633962485</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3306,10 +3306,10 @@
         <v>41684</v>
       </c>
       <c r="B266">
-        <v>0.1551540556936505</v>
+        <v>0.1541425390485235</v>
       </c>
       <c r="C266">
-        <v>0.8448459443063495</v>
+        <v>0.8458574609514765</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3592,10 +3592,10 @@
         <v>41722</v>
       </c>
       <c r="B292">
-        <v>0.1757708985924852</v>
+        <v>0.166</v>
       </c>
       <c r="C292">
-        <v>0.8242291014075148</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3603,10 +3603,10 @@
         <v>41723</v>
       </c>
       <c r="B293">
-        <v>0.1768808373959564</v>
+        <v>0.1670607444488954</v>
       </c>
       <c r="C293">
-        <v>0.8231191626040435</v>
+        <v>0.8329392555511047</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3614,10 +3614,10 @@
         <v>41724</v>
       </c>
       <c r="B294">
-        <v>0.1768442951657402</v>
+        <v>0.167025819303428</v>
       </c>
       <c r="C294">
-        <v>0.8231557048342598</v>
+        <v>0.832974180696572</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3625,10 +3625,10 @@
         <v>41725</v>
       </c>
       <c r="B295">
-        <v>0.1767750336624943</v>
+        <v>0.1669596232666922</v>
       </c>
       <c r="C295">
-        <v>0.8232249663375056</v>
+        <v>0.8330403767333079</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3636,10 +3636,10 @@
         <v>41726</v>
       </c>
       <c r="B296">
-        <v>0.1754311884769968</v>
+        <v>0.1656753781486098</v>
       </c>
       <c r="C296">
-        <v>0.8245688115230031</v>
+        <v>0.8343246218513902</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>41729</v>
       </c>
       <c r="B297">
-        <v>0.17</v>
+        <v>0.1647224399635792</v>
       </c>
       <c r="C297">
-        <v>0.83</v>
+        <v>0.8352775600364208</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>41730</v>
       </c>
       <c r="B298">
-        <v>0.16942613880591</v>
+        <v>0.1641628703755221</v>
       </c>
       <c r="C298">
-        <v>0.8305738611940899</v>
+        <v>0.835837129624478</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>41731</v>
       </c>
       <c r="B299">
-        <v>0.1708122029024247</v>
+        <v>0.1655144565883427</v>
       </c>
       <c r="C299">
-        <v>0.8291877970975752</v>
+        <v>0.8344855434116575</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>41732</v>
       </c>
       <c r="B300">
-        <v>0.171686829490012</v>
+        <v>0.1663673992506268</v>
       </c>
       <c r="C300">
-        <v>0.828313170509988</v>
+        <v>0.8336326007493732</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3691,10 +3691,10 @@
         <v>41733</v>
       </c>
       <c r="B301">
-        <v>0.1709227394893073</v>
+        <v>0.1656222496482044</v>
       </c>
       <c r="C301">
-        <v>0.8290772605106925</v>
+        <v>0.8343777503517955</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3702,10 +3702,10 @@
         <v>41737</v>
       </c>
       <c r="B302">
-        <v>0.1723409593482605</v>
+        <v>0.1670053482636664</v>
       </c>
       <c r="C302">
-        <v>0.8276590406517395</v>
+        <v>0.8329946517363336</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3713,10 +3713,10 @@
         <v>41738</v>
       </c>
       <c r="B303">
-        <v>0.1751201604978209</v>
+        <v>0.1697161500000168</v>
       </c>
       <c r="C303">
-        <v>0.824879839502179</v>
+        <v>0.8302838499999833</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3724,10 +3724,10 @@
         <v>41739</v>
       </c>
       <c r="B304">
-        <v>0.1755224583195628</v>
+        <v>0.1701085935024983</v>
       </c>
       <c r="C304">
-        <v>0.8244775416804373</v>
+        <v>0.8298914064975017</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3735,10 +3735,10 @@
         <v>41740</v>
       </c>
       <c r="B305">
-        <v>0.1773759592035521</v>
+        <v>0.1719168453230645</v>
       </c>
       <c r="C305">
-        <v>0.8226240407964479</v>
+        <v>0.8280831546769354</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3746,10 +3746,10 @@
         <v>41743</v>
       </c>
       <c r="B306">
-        <v>0.1770113204316182</v>
+        <v>0.1715610885727913</v>
       </c>
       <c r="C306">
-        <v>0.8229886795683818</v>
+        <v>0.8284389114272086</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3757,10 +3757,10 @@
         <v>41744</v>
       </c>
       <c r="B307">
-        <v>0.167</v>
+        <v>0.1716206862868788</v>
       </c>
       <c r="C307">
-        <v>0.833</v>
+        <v>0.8283793137131211</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3768,10 +3768,10 @@
         <v>41745</v>
       </c>
       <c r="B308">
-        <v>0.1649016122151994</v>
+        <v>0.1694760510976605</v>
       </c>
       <c r="C308">
-        <v>0.8350983877848006</v>
+        <v>0.8305239489023395</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3779,10 +3779,10 @@
         <v>41746</v>
       </c>
       <c r="B309">
-        <v>0.1649731007078171</v>
+        <v>0.1695491200798412</v>
       </c>
       <c r="C309">
-        <v>0.8350268992921829</v>
+        <v>0.8304508799201588</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3790,10 +3790,10 @@
         <v>41747</v>
       </c>
       <c r="B310">
-        <v>0.1642436678207146</v>
+        <v>0.1688035443712478</v>
       </c>
       <c r="C310">
-        <v>0.8357563321792855</v>
+        <v>0.8311964556287522</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3801,10 +3801,10 @@
         <v>41750</v>
       </c>
       <c r="B311">
-        <v>0.1642407427357399</v>
+        <v>0.1688005544795144</v>
       </c>
       <c r="C311">
-        <v>0.83575925726426</v>
+        <v>0.8311994455204855</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3812,10 +3812,10 @@
         <v>41751</v>
       </c>
       <c r="B312">
-        <v>0.172</v>
+        <v>0.1663941833867177</v>
       </c>
       <c r="C312">
-        <v>0.828</v>
+        <v>0.8336058166132823</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3823,10 +3823,10 @@
         <v>41752</v>
       </c>
       <c r="B313">
-        <v>0.1722407417742484</v>
+        <v>0.1666286579122206</v>
       </c>
       <c r="C313">
-        <v>0.8277592582257517</v>
+        <v>0.8333713420877794</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3834,10 +3834,10 @@
         <v>41753</v>
       </c>
       <c r="B314">
-        <v>0.171938339574179</v>
+        <v>0.1663341288862571</v>
       </c>
       <c r="C314">
-        <v>0.8280616604258211</v>
+        <v>0.8336658711137429</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3845,10 +3845,10 @@
         <v>41754</v>
       </c>
       <c r="B315">
-        <v>0.1713012919872817</v>
+        <v>0.1657136900564474</v>
       </c>
       <c r="C315">
-        <v>0.8286987080127183</v>
+        <v>0.8342863099435527</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3856,10 +3856,10 @@
         <v>41757</v>
       </c>
       <c r="B316">
-        <v>0.1693723947353248</v>
+        <v>0.163835271683598</v>
       </c>
       <c r="C316">
-        <v>0.8306276052646751</v>
+        <v>0.836164728316402</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6177,10 +6177,10 @@
         <v>42074</v>
       </c>
       <c r="B527">
-        <v>0.07385246636844453</v>
+        <v>0.068</v>
       </c>
       <c r="C527">
-        <v>0.9261475336315556</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6188,10 +6188,10 @@
         <v>42075</v>
       </c>
       <c r="B528">
-        <v>0.07383649739619226</v>
+        <v>0.06798520360148179</v>
       </c>
       <c r="C528">
-        <v>0.9261635026038078</v>
+        <v>0.9320147963985181</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6199,10 +6199,10 @@
         <v>42076</v>
       </c>
       <c r="B529">
-        <v>0.07468701354755597</v>
+        <v>0.06877332411555571</v>
       </c>
       <c r="C529">
-        <v>0.925312986452444</v>
+        <v>0.9312266758844442</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6210,10 +6210,10 @@
         <v>42079</v>
       </c>
       <c r="B530">
-        <v>0.0752578177677235</v>
+        <v>0.06930231728181566</v>
       </c>
       <c r="C530">
-        <v>0.9247421822322766</v>
+        <v>0.9306976827181844</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6221,10 +6221,10 @@
         <v>42080</v>
       </c>
       <c r="B531">
-        <v>0.07709919869456527</v>
+        <v>0.07100917051704633</v>
       </c>
       <c r="C531">
-        <v>0.9229008013054347</v>
+        <v>0.9289908294829535</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -11017,10 +11017,10 @@
         <v>42727</v>
       </c>
       <c r="B967">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
       <c r="C967">
-        <v>0.873</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -11028,10 +11028,10 @@
         <v>42730</v>
       </c>
       <c r="B968">
-        <v>0.1257965228284296</v>
+        <v>0.1248046443032107</v>
       </c>
       <c r="C968">
-        <v>0.8742034771715704</v>
+        <v>0.8751953556967893</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11039,10 +11039,10 @@
         <v>42731</v>
       </c>
       <c r="B969">
-        <v>0.1260510168408883</v>
+        <v>0.1250574187396139</v>
       </c>
       <c r="C969">
-        <v>0.8739489831591115</v>
+        <v>0.8749425812603862</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11050,10 +11050,10 @@
         <v>42732</v>
       </c>
       <c r="B970">
-        <v>0.1258495989379937</v>
+        <v>0.1248573616900718</v>
       </c>
       <c r="C970">
-        <v>0.8741504010620063</v>
+        <v>0.8751426383099282</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11061,10 +11061,10 @@
         <v>42733</v>
       </c>
       <c r="B971">
-        <v>0.1254101867967175</v>
+        <v>0.1244209209012502</v>
       </c>
       <c r="C971">
-        <v>0.8745898132032826</v>
+        <v>0.8755790790987498</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11072,10 +11072,10 @@
         <v>42734</v>
       </c>
       <c r="B972">
-        <v>0.135</v>
+        <v>0.134</v>
       </c>
       <c r="C972">
-        <v>0.865</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -11083,10 +11083,10 @@
         <v>42738</v>
       </c>
       <c r="B973">
-        <v>0.1351049274641477</v>
+        <v>0.1341042707222472</v>
       </c>
       <c r="C973">
-        <v>0.8648950725358522</v>
+        <v>0.8658957292777528</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11094,10 +11094,10 @@
         <v>42739</v>
       </c>
       <c r="B974">
-        <v>0.1361948207799795</v>
+        <v>0.1351873534683497</v>
       </c>
       <c r="C974">
-        <v>0.8638051792200205</v>
+        <v>0.8648126465316502</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11105,10 +11105,10 @@
         <v>42740</v>
       </c>
       <c r="B975">
-        <v>0.1373093885912226</v>
+        <v>0.1362949774324516</v>
       </c>
       <c r="C975">
-        <v>0.8626906114087775</v>
+        <v>0.8637050225675483</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -11116,10 +11116,10 @@
         <v>42741</v>
       </c>
       <c r="B976">
-        <v>0.1374096036309056</v>
+        <v>0.1363945691604141</v>
       </c>
       <c r="C976">
-        <v>0.8625903963690943</v>
+        <v>0.8636054308395859</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11457,10 +11457,10 @@
         <v>42793</v>
       </c>
       <c r="B1007">
-        <v>0.177</v>
+        <v>0.176</v>
       </c>
       <c r="C1007">
-        <v>0.823</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -11468,10 +11468,10 @@
         <v>42794</v>
       </c>
       <c r="B1008">
-        <v>0.1757639323799754</v>
+        <v>0.1747694328352093</v>
       </c>
       <c r="C1008">
-        <v>0.8242360676200245</v>
+        <v>0.8252305671647907</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -11479,10 +11479,10 @@
         <v>42795</v>
       </c>
       <c r="B1009">
-        <v>0.176153409670393</v>
+        <v>0.1751571747126525</v>
       </c>
       <c r="C1009">
-        <v>0.8238465903296071</v>
+        <v>0.8248428252873475</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
@@ -11490,10 +11490,10 @@
         <v>42796</v>
       </c>
       <c r="B1010">
-        <v>0.1764883182494505</v>
+        <v>0.1754905926811977</v>
       </c>
       <c r="C1010">
-        <v>0.8235116817505493</v>
+        <v>0.8245094073188023</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
@@ -11501,10 +11501,10 @@
         <v>42797</v>
       </c>
       <c r="B1011">
-        <v>0.1756753427072177</v>
+        <v>0.1746812381852187</v>
       </c>
       <c r="C1011">
-        <v>0.8243246572927824</v>
+        <v>0.8253187618147813</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
@@ -11512,10 +11512,10 @@
         <v>42800</v>
       </c>
       <c r="B1012">
-        <v>0.1755642856165634</v>
+        <v>0.1745706764514341</v>
       </c>
       <c r="C1012">
-        <v>0.8244357143834365</v>
+        <v>0.8254293235485658</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
@@ -11523,10 +11523,10 @@
         <v>42801</v>
       </c>
       <c r="B1013">
-        <v>0.1765599527723141</v>
+        <v>0.1755619085722827</v>
       </c>
       <c r="C1013">
-        <v>0.8234400472276858</v>
+        <v>0.8244380914277172</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
@@ -11534,10 +11534,10 @@
         <v>42802</v>
       </c>
       <c r="B1014">
-        <v>0.1768337690677978</v>
+        <v>0.1758345075739047</v>
       </c>
       <c r="C1014">
-        <v>0.8231662309322023</v>
+        <v>0.8241654924260954</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -11545,10 +11545,10 @@
         <v>42803</v>
       </c>
       <c r="B1015">
-        <v>0.1765925343539579</v>
+        <v>0.1755943452536109</v>
       </c>
       <c r="C1015">
-        <v>0.8234074656460422</v>
+        <v>0.8244056547463889</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11556,10 +11556,10 @@
         <v>42804</v>
       </c>
       <c r="B1016">
-        <v>0.1756604528664444</v>
+        <v>0.1746664147490134</v>
       </c>
       <c r="C1016">
-        <v>0.8243395471335556</v>
+        <v>0.8253335852509867</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11567,10 +11567,10 @@
         <v>42807</v>
       </c>
       <c r="B1017">
-        <v>0.184</v>
+        <v>0.183</v>
       </c>
       <c r="C1017">
-        <v>0.8159999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11578,10 +11578,10 @@
         <v>42808</v>
       </c>
       <c r="B1018">
-        <v>0.1853066006270022</v>
+        <v>0.1843011033831936</v>
       </c>
       <c r="C1018">
-        <v>0.8146933993729979</v>
+        <v>0.8156988966168065</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
@@ -11589,10 +11589,10 @@
         <v>42809</v>
       </c>
       <c r="B1019">
-        <v>0.1850862554529383</v>
+        <v>0.1840816836770637</v>
       </c>
       <c r="C1019">
-        <v>0.8149137445470617</v>
+        <v>0.8159183163229363</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11600,10 +11600,10 @@
         <v>42810</v>
       </c>
       <c r="B1020">
-        <v>0.185231462340893</v>
+        <v>0.1842262806117304</v>
       </c>
       <c r="C1020">
-        <v>0.814768537659107</v>
+        <v>0.8157737193882696</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11611,10 +11611,10 @@
         <v>42811</v>
       </c>
       <c r="B1021">
-        <v>0.1859385370576196</v>
+        <v>0.184930389200719</v>
       </c>
       <c r="C1021">
-        <v>0.8140614629423805</v>
+        <v>0.8150696107992809</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
@@ -11622,10 +11622,10 @@
         <v>42814</v>
       </c>
       <c r="B1022">
-        <v>0.1844163404454509</v>
+        <v>0.1834145863234553</v>
       </c>
       <c r="C1022">
-        <v>0.815583659554549</v>
+        <v>0.8165854136765447</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
@@ -11633,10 +11633,10 @@
         <v>42815</v>
       </c>
       <c r="B1023">
-        <v>0.1846665169815039</v>
+        <v>0.1836637099237769</v>
       </c>
       <c r="C1023">
-        <v>0.8153334830184962</v>
+        <v>0.8163362900762231</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11644,10 +11644,10 @@
         <v>42816</v>
       </c>
       <c r="B1024">
-        <v>0.185406730402588</v>
+        <v>0.1844008128182765</v>
       </c>
       <c r="C1024">
-        <v>0.8145932695974121</v>
+        <v>0.8155991871817234</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
@@ -11655,10 +11655,10 @@
         <v>42817</v>
       </c>
       <c r="B1025">
-        <v>0.1847661190940362</v>
+        <v>0.1837628930648937</v>
       </c>
       <c r="C1025">
-        <v>0.8152338809059638</v>
+        <v>0.8162371069351063</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11666,10 +11666,10 @@
         <v>42818</v>
       </c>
       <c r="B1026">
-        <v>0.1852319808382954</v>
+        <v>0.1842267969316436</v>
       </c>
       <c r="C1026">
-        <v>0.8147680191617046</v>
+        <v>0.8157732030683564</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
@@ -11677,10 +11677,10 @@
         <v>42821</v>
       </c>
       <c r="B1027">
-        <v>0.1861924203303955</v>
+        <v>0.1851832090694913</v>
       </c>
       <c r="C1027">
-        <v>0.8138075796696046</v>
+        <v>0.8148167909305087</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
@@ -11688,10 +11688,10 @@
         <v>42822</v>
       </c>
       <c r="B1028">
-        <v>0.1854944661148477</v>
+        <v>0.1844881803290978</v>
       </c>
       <c r="C1028">
-        <v>0.8145055338851523</v>
+        <v>0.815511819670902</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
@@ -11699,10 +11699,10 @@
         <v>42823</v>
       </c>
       <c r="B1029">
-        <v>0.1850601344093257</v>
+        <v>0.1840556723866909</v>
       </c>
       <c r="C1029">
-        <v>0.8149398655906743</v>
+        <v>0.8159443276133092</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
@@ -11710,10 +11710,10 @@
         <v>42824</v>
       </c>
       <c r="B1030">
-        <v>0.1848341597589877</v>
+        <v>0.1838306475957667</v>
       </c>
       <c r="C1030">
-        <v>0.8151658402410124</v>
+        <v>0.8161693524042334</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
@@ -11721,10 +11721,10 @@
         <v>42825</v>
       </c>
       <c r="B1031">
-        <v>0.1832778460604741</v>
+        <v>0.1822808940860288</v>
       </c>
       <c r="C1031">
-        <v>0.8167221539395259</v>
+        <v>0.8177191059139712</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
@@ -11732,10 +11732,10 @@
         <v>42830</v>
       </c>
       <c r="B1032">
-        <v>0.18404663598284</v>
+        <v>0.1830464393821674</v>
       </c>
       <c r="C1032">
-        <v>0.8159533640171599</v>
+        <v>0.8169535606178326</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
@@ -11743,10 +11743,10 @@
         <v>42831</v>
       </c>
       <c r="B1033">
-        <v>0.1863903652514042</v>
+        <v>0.1853803254805387</v>
       </c>
       <c r="C1033">
-        <v>0.8136096347485958</v>
+        <v>0.8146196745194613</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
@@ -11754,10 +11754,10 @@
         <v>42832</v>
       </c>
       <c r="B1034">
-        <v>0.1868698614157983</v>
+        <v>0.1858578168403379</v>
       </c>
       <c r="C1034">
-        <v>0.8131301385842017</v>
+        <v>0.8141421831596622</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
@@ -11765,10 +11765,10 @@
         <v>42835</v>
       </c>
       <c r="B1035">
-        <v>0.1870107051047221</v>
+        <v>0.185998072232147</v>
       </c>
       <c r="C1035">
-        <v>0.8129892948952779</v>
+        <v>0.8140019277678531</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
@@ -11776,10 +11776,10 @@
         <v>42836</v>
       </c>
       <c r="B1036">
-        <v>0.186498147595099</v>
+        <v>0.1854876569135296</v>
       </c>
       <c r="C1036">
-        <v>0.8135018524049009</v>
+        <v>0.8145123430864705</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -11787,10 +11787,10 @@
         <v>42837</v>
       </c>
       <c r="B1037">
-        <v>0.1873130145692317</v>
+        <v>0.1862991198535576</v>
       </c>
       <c r="C1037">
-        <v>0.8126869854307681</v>
+        <v>0.8137008801464425</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
@@ -11798,10 +11798,10 @@
         <v>42838</v>
       </c>
       <c r="B1038">
-        <v>0.1866820620817495</v>
+        <v>0.1856708023441639</v>
       </c>
       <c r="C1038">
-        <v>0.8133179379182505</v>
+        <v>0.8143291976558361</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
@@ -11809,10 +11809,10 @@
         <v>42839</v>
       </c>
       <c r="B1039">
-        <v>0.1871099647194335</v>
+        <v>0.1860969174024342</v>
       </c>
       <c r="C1039">
-        <v>0.8128900352805665</v>
+        <v>0.8139030825975658</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -11820,10 +11820,10 @@
         <v>42842</v>
       </c>
       <c r="B1040">
-        <v>0.1856983176839347</v>
+        <v>0.1846911767862731</v>
       </c>
       <c r="C1040">
-        <v>0.8143016823160654</v>
+        <v>0.8153088232137268</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11831,10 +11831,10 @@
         <v>42843</v>
       </c>
       <c r="B1041">
-        <v>0.1852217437662903</v>
+        <v>0.1842166028520538</v>
       </c>
       <c r="C1041">
-        <v>0.8147782562337097</v>
+        <v>0.8157833971479461</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -12007,10 +12007,10 @@
         <v>42866</v>
       </c>
       <c r="B1057">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="C1057">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12018,10 +12018,10 @@
         <v>42867</v>
       </c>
       <c r="B1058">
-        <v>0.1936908032161264</v>
+        <v>0.1926880785552828</v>
       </c>
       <c r="C1058">
-        <v>0.8063091967838737</v>
+        <v>0.8073119214447172</v>
       </c>
     </row>
     <row r="1059" spans="1:3">
@@ -12029,10 +12029,10 @@
         <v>42870</v>
       </c>
       <c r="B1059">
-        <v>0.1946765749820091</v>
+        <v>0.193669972817148</v>
       </c>
       <c r="C1059">
-        <v>0.8053234250179908</v>
+        <v>0.8063300271828521</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
@@ -12040,10 +12040,10 @@
         <v>42871</v>
       </c>
       <c r="B1060">
-        <v>0.1953192285502156</v>
+        <v>0.1943101052194094</v>
       </c>
       <c r="C1060">
-        <v>0.8046807714497844</v>
+        <v>0.8056898947805907</v>
       </c>
     </row>
     <row r="1061" spans="1:3">
@@ -12051,10 +12051,10 @@
         <v>42872</v>
       </c>
       <c r="B1061">
-        <v>0.1972629483716105</v>
+        <v>0.1962462318703919</v>
       </c>
       <c r="C1061">
-        <v>0.8027370516283895</v>
+        <v>0.8037537681296081</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -12557,10 +12557,10 @@
         <v>42940</v>
       </c>
       <c r="B1107">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
       <c r="C1107">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
@@ -12568,10 +12568,10 @@
         <v>42941</v>
       </c>
       <c r="B1108">
-        <v>0.1856911900466272</v>
+        <v>0.184688300541252</v>
       </c>
       <c r="C1108">
-        <v>0.814308809953373</v>
+        <v>0.8153116994587479</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12579,10 +12579,10 @@
         <v>42942</v>
       </c>
       <c r="B1109">
-        <v>0.1849519378787555</v>
+        <v>0.1839521390361012</v>
       </c>
       <c r="C1109">
-        <v>0.8150480621212445</v>
+        <v>0.8160478609638987</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
@@ -12590,10 +12590,10 @@
         <v>42943</v>
       </c>
       <c r="B1110">
-        <v>0.1845617761706742</v>
+        <v>0.1835636114250079</v>
       </c>
       <c r="C1110">
-        <v>0.8154382238293258</v>
+        <v>0.816436388574992</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
@@ -12601,10 +12601,10 @@
         <v>42944</v>
       </c>
       <c r="B1111">
-        <v>0.1850504936417747</v>
+        <v>0.1840502823405045</v>
       </c>
       <c r="C1111">
-        <v>0.8149495063582253</v>
+        <v>0.8159497176594956</v>
       </c>
     </row>
     <row r="1112" spans="1:3">
@@ -12612,10 +12612,10 @@
         <v>42947</v>
       </c>
       <c r="B1112">
-        <v>0.1855255368225893</v>
+        <v>0.1845233392520305</v>
       </c>
       <c r="C1112">
-        <v>0.8144744631774107</v>
+        <v>0.8154766607479694</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
@@ -12623,10 +12623,10 @@
         <v>42948</v>
       </c>
       <c r="B1113">
-        <v>0.1865437164583056</v>
+        <v>0.1855372716765208</v>
       </c>
       <c r="C1113">
-        <v>0.8134562835416945</v>
+        <v>0.8144627283234793</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
@@ -12634,10 +12634,10 @@
         <v>42949</v>
       </c>
       <c r="B1114">
-        <v>0.187488548025961</v>
+        <v>0.1864781742455016</v>
       </c>
       <c r="C1114">
-        <v>0.8125114519740391</v>
+        <v>0.8135218257544984</v>
       </c>
     </row>
     <row r="1115" spans="1:3">
@@ -12645,10 +12645,10 @@
         <v>42950</v>
       </c>
       <c r="B1115">
-        <v>0.1870055692955297</v>
+        <v>0.1859972024661645</v>
       </c>
       <c r="C1115">
-        <v>0.8129944307044703</v>
+        <v>0.8140027975338355</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
@@ -12656,10 +12656,10 @@
         <v>42951</v>
       </c>
       <c r="B1116">
-        <v>0.1860850346259748</v>
+        <v>0.1850805014840914</v>
       </c>
       <c r="C1116">
-        <v>0.8139149653740252</v>
+        <v>0.8149194985159086</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12667,10 +12667,10 @@
         <v>42954</v>
       </c>
       <c r="B1117">
-        <v>0.1852232223616515</v>
+        <v>0.1842222884953577</v>
       </c>
       <c r="C1117">
-        <v>0.8147767776383485</v>
+        <v>0.8157777115046423</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -12678,10 +12678,10 @@
         <v>42955</v>
       </c>
       <c r="B1118">
-        <v>0.1863827635232316</v>
+        <v>0.1853769892255517</v>
       </c>
       <c r="C1118">
-        <v>0.8136172364767683</v>
+        <v>0.8146230107744482</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -12689,10 +12689,10 @@
         <v>42956</v>
       </c>
       <c r="B1119">
-        <v>0.1866526856175743</v>
+        <v>0.1856457870955645</v>
       </c>
       <c r="C1119">
-        <v>0.8133473143824257</v>
+        <v>0.8143542129044355</v>
       </c>
     </row>
     <row r="1120" spans="1:3">
@@ -12700,10 +12700,10 @@
         <v>42957</v>
       </c>
       <c r="B1120">
-        <v>0.1869091298635426</v>
+        <v>0.1859011641439296</v>
       </c>
       <c r="C1120">
-        <v>0.8130908701364573</v>
+        <v>0.8140988358560705</v>
       </c>
     </row>
     <row r="1121" spans="1:3">
@@ -12711,10 +12711,10 @@
         <v>42958</v>
       </c>
       <c r="B1121">
-        <v>0.1861060601783731</v>
+        <v>0.1851014393479015</v>
       </c>
       <c r="C1121">
-        <v>0.8138939398216269</v>
+        <v>0.8148985606520985</v>
       </c>
     </row>
     <row r="1122" spans="1:3">
@@ -12722,10 +12722,10 @@
         <v>42961</v>
       </c>
       <c r="B1122">
-        <v>0.1831633663362721</v>
+        <v>0.1821710750075174</v>
       </c>
       <c r="C1122">
-        <v>0.8168366336637279</v>
+        <v>0.8178289249924825</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -12733,10 +12733,10 @@
         <v>42962</v>
       </c>
       <c r="B1123">
-        <v>0.1853234363560841</v>
+        <v>0.1843220834516424</v>
       </c>
       <c r="C1123">
-        <v>0.8146765636439161</v>
+        <v>0.8156779165483578</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -12744,10 +12744,10 @@
         <v>42963</v>
       </c>
       <c r="B1124">
-        <v>0.1857559004339255</v>
+        <v>0.1847527407312111</v>
       </c>
       <c r="C1124">
-        <v>0.8142440995660746</v>
+        <v>0.8152472592687888</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
@@ -12755,10 +12755,10 @@
         <v>42964</v>
       </c>
       <c r="B1125">
-        <v>0.1856750458323261</v>
+        <v>0.1846722237455188</v>
       </c>
       <c r="C1125">
-        <v>0.8143249541676739</v>
+        <v>0.8153277762544812</v>
       </c>
     </row>
     <row r="1126" spans="1:3">
@@ -12766,10 +12766,10 @@
         <v>42965</v>
       </c>
       <c r="B1126">
-        <v>0.1866075788773379</v>
+        <v>0.1856008681577241</v>
       </c>
       <c r="C1126">
-        <v>0.8133924211226622</v>
+        <v>0.814399131842276</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -12777,10 +12777,10 @@
         <v>42968</v>
       </c>
       <c r="B1127">
-        <v>0.1866342392469691</v>
+        <v>0.1856274175233726</v>
       </c>
       <c r="C1127">
-        <v>0.8133657607530309</v>
+        <v>0.8143725824766275</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -12788,10 +12788,10 @@
         <v>42969</v>
       </c>
       <c r="B1128">
-        <v>0.1875323132475544</v>
+        <v>0.1865217577590541</v>
       </c>
       <c r="C1128">
-        <v>0.8124676867524457</v>
+        <v>0.8134782422409459</v>
       </c>
     </row>
     <row r="1129" spans="1:3">
@@ -12799,10 +12799,10 @@
         <v>42970</v>
       </c>
       <c r="B1129">
-        <v>0.1877434918888704</v>
+        <v>0.1867320599671491</v>
       </c>
       <c r="C1129">
-        <v>0.8122565081111296</v>
+        <v>0.8132679400328509</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -12810,10 +12810,10 @@
         <v>42971</v>
       </c>
       <c r="B1130">
-        <v>0.1874958736844246</v>
+        <v>0.1864854694869317</v>
       </c>
       <c r="C1130">
-        <v>0.8125041263155753</v>
+        <v>0.8135145305130683</v>
       </c>
     </row>
     <row r="1131" spans="1:3">
@@ -12821,10 +12821,10 @@
         <v>42972</v>
       </c>
       <c r="B1131">
-        <v>0.1866485627898518</v>
+        <v>0.1856416814321633</v>
       </c>
       <c r="C1131">
-        <v>0.8133514372101482</v>
+        <v>0.8143583185678367</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -13382,10 +13382,10 @@
         <v>43052</v>
       </c>
       <c r="B1182">
-        <v>0.1877173531661767</v>
+        <v>0.181</v>
       </c>
       <c r="C1182">
-        <v>0.8122826468338232</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
@@ -13393,10 +13393,10 @@
         <v>43053</v>
       </c>
       <c r="B1183">
-        <v>0.188479646507818</v>
+        <v>0.1817411183910193</v>
       </c>
       <c r="C1183">
-        <v>0.8115203534921821</v>
+        <v>0.8182588816089806</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
@@ -13404,10 +13404,10 @@
         <v>43054</v>
       </c>
       <c r="B1184">
-        <v>0.1875464033930999</v>
+        <v>0.1808338056951456</v>
       </c>
       <c r="C1184">
-        <v>0.8124535966069001</v>
+        <v>0.8191661943048544</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
@@ -13415,10 +13415,10 @@
         <v>43055</v>
       </c>
       <c r="B1185">
-        <v>0.1864191439745597</v>
+        <v>0.1797379669688833</v>
       </c>
       <c r="C1185">
-        <v>0.8135808560254403</v>
+        <v>0.8202620330311168</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
@@ -13426,10 +13426,10 @@
         <v>43056</v>
       </c>
       <c r="B1186">
-        <v>0.1874164174909456</v>
+        <v>0.1807074374065854</v>
       </c>
       <c r="C1186">
-        <v>0.8125835825090544</v>
+        <v>0.8192925625934145</v>
       </c>
     </row>
     <row r="1187" spans="1:3">
@@ -13437,10 +13437,10 @@
         <v>43059</v>
       </c>
       <c r="B1187">
-        <v>0.182</v>
+        <v>0.1799095411863575</v>
       </c>
       <c r="C1187">
-        <v>0.8179999999999999</v>
+        <v>0.8200904588136425</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
@@ -13448,10 +13448,10 @@
         <v>43060</v>
       </c>
       <c r="B1188">
-        <v>0.183046217412019</v>
+        <v>0.1809463999131182</v>
       </c>
       <c r="C1188">
-        <v>0.816953782587981</v>
+        <v>0.8190536000868819</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
@@ -13459,10 +13459,10 @@
         <v>43061</v>
       </c>
       <c r="B1189">
-        <v>0.1852102087424156</v>
+        <v>0.1830911304584958</v>
       </c>
       <c r="C1189">
-        <v>0.8147897912575843</v>
+        <v>0.8169088695415041</v>
       </c>
     </row>
     <row r="1190" spans="1:3">
@@ -13470,10 +13470,10 @@
         <v>43062</v>
       </c>
       <c r="B1190">
-        <v>0.1855519980566415</v>
+        <v>0.1834298895679524</v>
       </c>
       <c r="C1190">
-        <v>0.8144480019433585</v>
+        <v>0.8165701104320476</v>
       </c>
     </row>
     <row r="1191" spans="1:3">
@@ -13481,10 +13481,10 @@
         <v>43063</v>
       </c>
       <c r="B1191">
-        <v>0.1814480857648507</v>
+        <v>0.1793625762410041</v>
       </c>
       <c r="C1191">
-        <v>0.8185519142351494</v>
+        <v>0.8206374237589958</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -13492,10 +13492,10 @@
         <v>43066</v>
       </c>
       <c r="B1192">
-        <v>0.1815084685109883</v>
+        <v>0.1794224170919717</v>
       </c>
       <c r="C1192">
-        <v>0.8184915314890118</v>
+        <v>0.8205775829080283</v>
       </c>
     </row>
     <row r="1193" spans="1:3">
@@ -13503,10 +13503,10 @@
         <v>43067</v>
       </c>
       <c r="B1193">
-        <v>0.1794898050695379</v>
+        <v>0.1774219248263856</v>
       </c>
       <c r="C1193">
-        <v>0.8205101949304621</v>
+        <v>0.8225780751736145</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -13514,10 +13514,10 @@
         <v>43068</v>
       </c>
       <c r="B1194">
-        <v>0.1803439450053366</v>
+        <v>0.178268362306035</v>
       </c>
       <c r="C1194">
-        <v>0.8196560549946634</v>
+        <v>0.821731637693965</v>
       </c>
     </row>
     <row r="1195" spans="1:3">
@@ -13525,10 +13525,10 @@
         <v>43069</v>
       </c>
       <c r="B1195">
-        <v>0.1803954583809449</v>
+        <v>0.1783194117939096</v>
       </c>
       <c r="C1195">
-        <v>0.819604541619055</v>
+        <v>0.8216805882060904</v>
       </c>
     </row>
     <row r="1196" spans="1:3">
@@ -13536,10 +13536,10 @@
         <v>43070</v>
       </c>
       <c r="B1196">
-        <v>0.1787263814370403</v>
+        <v>0.1766654027719323</v>
       </c>
       <c r="C1196">
-        <v>0.8212736185629597</v>
+        <v>0.8233345972280677</v>
       </c>
     </row>
     <row r="1197" spans="1:3">
@@ -13547,10 +13547,10 @@
         <v>43073</v>
       </c>
       <c r="B1197">
-        <v>0.1787730171720121</v>
+        <v>0.1767116164407896</v>
       </c>
       <c r="C1197">
-        <v>0.8212269828279878</v>
+        <v>0.8232883835592103</v>
       </c>
     </row>
     <row r="1198" spans="1:3">
@@ -13558,10 +13558,10 @@
         <v>43074</v>
       </c>
       <c r="B1198">
-        <v>0.1790020442411328</v>
+        <v>0.1769385716309477</v>
       </c>
       <c r="C1198">
-        <v>0.8209979557588672</v>
+        <v>0.8230614283690523</v>
       </c>
     </row>
     <row r="1199" spans="1:3">
@@ -13569,10 +13569,10 @@
         <v>43075</v>
       </c>
       <c r="B1199">
-        <v>0.178576713317032</v>
+        <v>0.1765170895980051</v>
       </c>
       <c r="C1199">
-        <v>0.8214232866829679</v>
+        <v>0.8234829104019949</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -13580,10 +13580,10 @@
         <v>43076</v>
       </c>
       <c r="B1200">
-        <v>0.1781235418679846</v>
+        <v>0.1760680245129633</v>
       </c>
       <c r="C1200">
-        <v>0.8218764581320155</v>
+        <v>0.8239319754870368</v>
       </c>
     </row>
     <row r="1201" spans="1:3">
@@ -13591,10 +13591,10 @@
         <v>43077</v>
       </c>
       <c r="B1201">
-        <v>0.1766485737493075</v>
+        <v>0.1746064612268824</v>
       </c>
       <c r="C1201">
-        <v>0.8233514262506925</v>
+        <v>0.8253935387731175</v>
       </c>
     </row>
     <row r="1202" spans="1:3">
@@ -13602,10 +13602,10 @@
         <v>43080</v>
       </c>
       <c r="B1202">
-        <v>0.1779365473711692</v>
+        <v>0.1758827261120886</v>
       </c>
       <c r="C1202">
-        <v>0.822063452628831</v>
+        <v>0.8241172738879113</v>
       </c>
     </row>
     <row r="1203" spans="1:3">
@@ -13613,10 +13613,10 @@
         <v>43081</v>
       </c>
       <c r="B1203">
-        <v>0.1802788523278492</v>
+        <v>0.1782038559060909</v>
       </c>
       <c r="C1203">
-        <v>0.8197211476721508</v>
+        <v>0.8217961440939091</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
@@ -13624,10 +13624,10 @@
         <v>43082</v>
       </c>
       <c r="B1204">
-        <v>0.1785567869652627</v>
+        <v>0.1764973436865973</v>
       </c>
       <c r="C1204">
-        <v>0.8214432130347373</v>
+        <v>0.8235026563134026</v>
       </c>
     </row>
     <row r="1205" spans="1:3">
@@ -13635,10 +13635,10 @@
         <v>43083</v>
       </c>
       <c r="B1205">
-        <v>0.179766910574029</v>
+        <v>0.177696529226189</v>
       </c>
       <c r="C1205">
-        <v>0.820233089425971</v>
+        <v>0.8223034707738109</v>
       </c>
     </row>
     <row r="1206" spans="1:3">
@@ -13646,10 +13646,10 @@
         <v>43084</v>
       </c>
       <c r="B1206">
-        <v>0.1791392779716939</v>
+        <v>0.1770745645845701</v>
       </c>
       <c r="C1206">
-        <v>0.8208607220283062</v>
+        <v>0.82292543541543</v>
       </c>
     </row>
     <row r="1207" spans="1:3">
@@ -13657,10 +13657,10 @@
         <v>43087</v>
       </c>
       <c r="B1207">
-        <v>0.1775814990539097</v>
+        <v>0.175530900866769</v>
       </c>
       <c r="C1207">
-        <v>0.8224185009460904</v>
+        <v>0.8244690991332311</v>
       </c>
     </row>
     <row r="1208" spans="1:3">
@@ -13668,10 +13668,10 @@
         <v>43088</v>
       </c>
       <c r="B1208">
-        <v>0.1773901750930507</v>
+        <v>0.1753413151686897</v>
       </c>
       <c r="C1208">
-        <v>0.8226098249069493</v>
+        <v>0.8246586848313102</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
@@ -13679,10 +13679,10 @@
         <v>43089</v>
       </c>
       <c r="B1209">
-        <v>0.1790664709551074</v>
+        <v>0.1770024157757722</v>
       </c>
       <c r="C1209">
-        <v>0.8209335290448926</v>
+        <v>0.8229975842242279</v>
       </c>
     </row>
     <row r="1210" spans="1:3">
@@ -13690,10 +13690,10 @@
         <v>43090</v>
       </c>
       <c r="B1210">
-        <v>0.1786469681050914</v>
+        <v>0.1765867082915633</v>
       </c>
       <c r="C1210">
-        <v>0.8213530318949086</v>
+        <v>0.8234132917084367</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13701,10 +13701,10 @@
         <v>43091</v>
       </c>
       <c r="B1211">
-        <v>0.1798926308224568</v>
+        <v>0.1778211154508308</v>
       </c>
       <c r="C1211">
-        <v>0.8201073691775432</v>
+        <v>0.8221788845491693</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
@@ -13712,10 +13712,10 @@
         <v>43094</v>
       </c>
       <c r="B1212">
-        <v>0.1795206037468791</v>
+        <v>0.1774524454148238</v>
       </c>
       <c r="C1212">
-        <v>0.8204793962531209</v>
+        <v>0.8225475545851761</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -13723,10 +13723,10 @@
         <v>43095</v>
       </c>
       <c r="B1213">
-        <v>0.1788017192675607</v>
+        <v>0.1767400588046359</v>
       </c>
       <c r="C1213">
-        <v>0.8211982807324393</v>
+        <v>0.8232599411953641</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -13734,10 +13734,10 @@
         <v>43096</v>
       </c>
       <c r="B1214">
-        <v>0.1793580165509524</v>
+        <v>0.1772913265571918</v>
       </c>
       <c r="C1214">
-        <v>0.8206419834490476</v>
+        <v>0.8227086734428082</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13745,10 +13745,10 @@
         <v>43097</v>
       </c>
       <c r="B1215">
-        <v>0.1774186496720652</v>
+        <v>0.1753695309790474</v>
       </c>
       <c r="C1215">
-        <v>0.8225813503279349</v>
+        <v>0.8246304690209526</v>
       </c>
     </row>
     <row r="1216" spans="1:3">
@@ -13756,10 +13756,10 @@
         <v>43098</v>
       </c>
       <c r="B1216">
-        <v>0.1784048281905626</v>
+        <v>0.1763467613172822</v>
       </c>
       <c r="C1216">
-        <v>0.8215951718094374</v>
+        <v>0.8236532386827178</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
@@ -13767,10 +13767,10 @@
         <v>43102</v>
       </c>
       <c r="B1217">
-        <v>0.1789471592423869</v>
+        <v>0.1768841830129007</v>
       </c>
       <c r="C1217">
-        <v>0.8210528407576132</v>
+        <v>0.8231158169870993</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
@@ -13778,10 +13778,10 @@
         <v>43103</v>
       </c>
       <c r="B1218">
-        <v>0.180846920118975</v>
+        <v>0.178766811192942</v>
       </c>
       <c r="C1218">
-        <v>0.8191530798810249</v>
+        <v>0.821233188807058</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
@@ -13789,10 +13789,10 @@
         <v>43104</v>
       </c>
       <c r="B1219">
-        <v>0.1818300748796283</v>
+        <v>0.1797411389659024</v>
       </c>
       <c r="C1219">
-        <v>0.8181699251203717</v>
+        <v>0.8202588610340975</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13800,10 +13800,10 @@
         <v>43105</v>
       </c>
       <c r="B1220">
-        <v>0.1825043587931108</v>
+        <v>0.1804093845565098</v>
       </c>
       <c r="C1220">
-        <v>0.8174956412068891</v>
+        <v>0.81959061544349</v>
       </c>
     </row>
     <row r="1221" spans="1:3">
@@ -13811,10 +13811,10 @@
         <v>43108</v>
       </c>
       <c r="B1221">
-        <v>0.1827179363049072</v>
+        <v>0.1806210520855635</v>
       </c>
       <c r="C1221">
-        <v>0.8172820636950927</v>
+        <v>0.8193789479144366</v>
       </c>
     </row>
     <row r="1222" spans="1:3">
@@ -13822,10 +13822,10 @@
         <v>43109</v>
       </c>
       <c r="B1222">
-        <v>0.169</v>
+        <v>0.167</v>
       </c>
       <c r="C1222">
-        <v>0.831</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="1223" spans="1:3">
@@ -13833,10 +13833,10 @@
         <v>43110</v>
       </c>
       <c r="B1223">
-        <v>0.1696841224439875</v>
+        <v>0.1676776599414001</v>
       </c>
       <c r="C1223">
-        <v>0.8303158775560125</v>
+        <v>0.8323223400585997</v>
       </c>
     </row>
     <row r="1224" spans="1:3">
@@ -13844,10 +13844,10 @@
         <v>43111</v>
       </c>
       <c r="B1224">
-        <v>0.1699327779616442</v>
+        <v>0.1679239698284641</v>
       </c>
       <c r="C1224">
-        <v>0.8300672220383558</v>
+        <v>0.8320760301715359</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
@@ -13855,10 +13855,10 @@
         <v>43112</v>
       </c>
       <c r="B1225">
-        <v>0.1701377868347617</v>
+        <v>0.1681270461128817</v>
       </c>
       <c r="C1225">
-        <v>0.8298622131652384</v>
+        <v>0.8318729538871185</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -13866,10 +13866,10 @@
         <v>43115</v>
       </c>
       <c r="B1226">
-        <v>0.1704636033050246</v>
+        <v>0.1684497935987204</v>
       </c>
       <c r="C1226">
-        <v>0.8295363966949753</v>
+        <v>0.8315502064012795</v>
       </c>
     </row>
     <row r="1227" spans="1:3">
@@ -13877,10 +13877,10 @@
         <v>43116</v>
       </c>
       <c r="B1227">
-        <v>0.1696587135143228</v>
+        <v>0.167652490798852</v>
       </c>
       <c r="C1227">
-        <v>0.8303412864856773</v>
+        <v>0.8323475092011481</v>
       </c>
     </row>
     <row r="1228" spans="1:3">
@@ -13888,10 +13888,10 @@
         <v>43117</v>
       </c>
       <c r="B1228">
-        <v>0.1707675861000071</v>
+        <v>0.1687509157694575</v>
       </c>
       <c r="C1228">
-        <v>0.8292324138999929</v>
+        <v>0.8312490842305426</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
@@ -13899,10 +13899,10 @@
         <v>43118</v>
       </c>
       <c r="B1229">
-        <v>0.1703084541470569</v>
+        <v>0.1682961054738384</v>
       </c>
       <c r="C1229">
-        <v>0.8296915458529431</v>
+        <v>0.8317038945261616</v>
       </c>
     </row>
     <row r="1230" spans="1:3">
@@ -13910,10 +13910,10 @@
         <v>43119</v>
       </c>
       <c r="B1230">
-        <v>0.1710504880357614</v>
+        <v>0.1690311578042592</v>
       </c>
       <c r="C1230">
-        <v>0.8289495119642387</v>
+        <v>0.8309688421957407</v>
       </c>
     </row>
     <row r="1231" spans="1:3">
@@ -13921,10 +13921,10 @@
         <v>43122</v>
       </c>
       <c r="B1231">
-        <v>0.1713173936575744</v>
+        <v>0.1692955559959316</v>
       </c>
       <c r="C1231">
-        <v>0.8286826063424256</v>
+        <v>0.8307044440040683</v>
       </c>
     </row>
     <row r="1232" spans="1:3">
@@ -13932,10 +13932,10 @@
         <v>43123</v>
       </c>
       <c r="B1232">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="C1232">
-        <v>0.838</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
@@ -13943,10 +13943,10 @@
         <v>43124</v>
       </c>
       <c r="B1233">
-        <v>0.1630863975518783</v>
+        <v>0.1620809884593932</v>
       </c>
       <c r="C1233">
-        <v>0.8369136024481217</v>
+        <v>0.8379190115406068</v>
       </c>
     </row>
     <row r="1234" spans="1:3">
@@ -13954,10 +13954,10 @@
         <v>43125</v>
       </c>
       <c r="B1234">
-        <v>0.1634437701128115</v>
+        <v>0.1624365854707537</v>
       </c>
       <c r="C1234">
-        <v>0.8365562298871884</v>
+        <v>0.8375634145292464</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
@@ -13965,10 +13965,10 @@
         <v>43126</v>
       </c>
       <c r="B1235">
-        <v>0.1627807359784878</v>
+        <v>0.1617768470030832</v>
       </c>
       <c r="C1235">
-        <v>0.837219264021512</v>
+        <v>0.8382231529969167</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
@@ -13976,10 +13976,10 @@
         <v>43129</v>
       </c>
       <c r="B1236">
-        <v>0.1631204677096977</v>
+        <v>0.1621148892642364</v>
       </c>
       <c r="C1236">
-        <v>0.8368795322903023</v>
+        <v>0.8378851107357637</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -13987,10 +13987,10 @@
         <v>43130</v>
       </c>
       <c r="B1237">
-        <v>0.1608276365554576</v>
+        <v>0.1598334930746687</v>
       </c>
       <c r="C1237">
-        <v>0.8391723634445424</v>
+        <v>0.8401665069253312</v>
       </c>
     </row>
     <row r="1238" spans="1:3">
@@ -13998,10 +13998,10 @@
         <v>43131</v>
       </c>
       <c r="B1238">
-        <v>0.1597454942205961</v>
+        <v>0.1587567744423</v>
       </c>
       <c r="C1238">
-        <v>0.8402545057794039</v>
+        <v>0.8412432255576999</v>
       </c>
     </row>
     <row r="1239" spans="1:3">
@@ -14009,10 +14009,10 @@
         <v>43132</v>
       </c>
       <c r="B1239">
-        <v>0.1594940334096397</v>
+        <v>0.1585065764119223</v>
       </c>
       <c r="C1239">
-        <v>0.8405059665903604</v>
+        <v>0.8414934235880778</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
@@ -14020,10 +14020,10 @@
         <v>43133</v>
       </c>
       <c r="B1240">
-        <v>0.1576051219674634</v>
+        <v>0.156627180295915</v>
       </c>
       <c r="C1240">
-        <v>0.8423948780325367</v>
+        <v>0.843372819704085</v>
       </c>
     </row>
     <row r="1241" spans="1:3">
@@ -14031,10 +14031,10 @@
         <v>43136</v>
       </c>
       <c r="B1241">
-        <v>0.1582678748402486</v>
+        <v>0.1572865886182709</v>
       </c>
       <c r="C1241">
-        <v>0.8417321251597514</v>
+        <v>0.8427134113817292</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14042,10 +14042,10 @@
         <v>43137</v>
       </c>
       <c r="B1242">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="C1242">
-        <v>0.83</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
@@ -14053,10 +14053,10 @@
         <v>43138</v>
       </c>
       <c r="B1243">
-        <v>0.1650568513959678</v>
+        <v>0.1621270440664807</v>
       </c>
       <c r="C1243">
-        <v>0.8349431486040323</v>
+        <v>0.8378729559335193</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
@@ -14064,10 +14064,10 @@
         <v>43139</v>
       </c>
       <c r="B1244">
-        <v>0.1625289745154152</v>
+        <v>0.1596354587940399</v>
       </c>
       <c r="C1244">
-        <v>0.8374710254845847</v>
+        <v>0.8403645412059602</v>
       </c>
     </row>
     <row r="1245" spans="1:3">
@@ -14075,10 +14075,10 @@
         <v>43140</v>
       </c>
       <c r="B1245">
-        <v>0.1618188615024757</v>
+        <v>0.1589355887361251</v>
       </c>
       <c r="C1245">
-        <v>0.8381811384975243</v>
+        <v>0.8410644112638749</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
@@ -14086,10 +14086,10 @@
         <v>43143</v>
       </c>
       <c r="B1246">
-        <v>0.1561772462896832</v>
+        <v>0.1533761011197768</v>
       </c>
       <c r="C1246">
-        <v>0.8438227537103168</v>
+        <v>0.8466238988802232</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
@@ -14097,10 +14097,10 @@
         <v>43144</v>
       </c>
       <c r="B1247">
-        <v>0.158158217859489</v>
+        <v>0.1553280828742075</v>
       </c>
       <c r="C1247">
-        <v>0.8418417821405109</v>
+        <v>0.8446719171257926</v>
       </c>
     </row>
     <row r="1248" spans="1:3">
@@ -14108,10 +14108,10 @@
         <v>43145</v>
       </c>
       <c r="B1248">
-        <v>0.1595317837196039</v>
+        <v>0.1566816442902587</v>
       </c>
       <c r="C1248">
-        <v>0.8404682162803961</v>
+        <v>0.8433183557097413</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
@@ -14119,10 +14119,10 @@
         <v>43153</v>
       </c>
       <c r="B1249">
-        <v>0.1603690754476709</v>
+        <v>0.1575067805814379</v>
       </c>
       <c r="C1249">
-        <v>0.839630924552329</v>
+        <v>0.8424932194185623</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
@@ -14130,10 +14130,10 @@
         <v>43154</v>
       </c>
       <c r="B1250">
-        <v>0.1631449808694998</v>
+        <v>0.1602425967407713</v>
       </c>
       <c r="C1250">
-        <v>0.8368550191305001</v>
+        <v>0.8397574032592288</v>
       </c>
     </row>
     <row r="1251" spans="1:3">
@@ -14141,10 +14141,10 @@
         <v>43157</v>
       </c>
       <c r="B1251">
-        <v>0.1636976166893222</v>
+        <v>0.1607872900064326</v>
       </c>
       <c r="C1251">
-        <v>0.8363023833106779</v>
+        <v>0.8392127099935675</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14152,10 +14152,10 @@
         <v>43158</v>
       </c>
       <c r="B1252">
-        <v>0.151</v>
+        <v>0.149</v>
       </c>
       <c r="C1252">
-        <v>0.849</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="1253" spans="1:3">
@@ -14163,10 +14163,10 @@
         <v>43159</v>
       </c>
       <c r="B1253">
-        <v>0.1493654173678367</v>
+        <v>0.1473833090901964</v>
       </c>
       <c r="C1253">
-        <v>0.8506345826321633</v>
+        <v>0.8526166909098035</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
@@ -14174,10 +14174,10 @@
         <v>43160</v>
       </c>
       <c r="B1254">
-        <v>0.1485071713756432</v>
+        <v>0.1465344902491185</v>
       </c>
       <c r="C1254">
-        <v>0.8514928286243568</v>
+        <v>0.8534655097508815</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
@@ -14185,10 +14185,10 @@
         <v>43161</v>
       </c>
       <c r="B1255">
-        <v>0.1494114758498814</v>
+        <v>0.1474288622989998</v>
       </c>
       <c r="C1255">
-        <v>0.8505885241501187</v>
+        <v>0.8525711377010001</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
@@ -14196,10 +14196,10 @@
         <v>43164</v>
       </c>
       <c r="B1256">
-        <v>0.1484598238777941</v>
+        <v>0.1464876634875066</v>
       </c>
       <c r="C1256">
-        <v>0.851540176122206</v>
+        <v>0.8535123365124935</v>
       </c>
     </row>
     <row r="1257" spans="1:3">
@@ -14207,10 +14207,10 @@
         <v>43165</v>
       </c>
       <c r="B1257">
-        <v>0.1485418809968731</v>
+        <v>0.1465688181716785</v>
       </c>
       <c r="C1257">
-        <v>0.851458119003127</v>
+        <v>0.8534311818283215</v>
       </c>
     </row>
     <row r="1258" spans="1:3">
@@ -14218,10 +14218,10 @@
         <v>43166</v>
       </c>
       <c r="B1258">
-        <v>0.1500702833947831</v>
+        <v>0.1480804497228327</v>
       </c>
       <c r="C1258">
-        <v>0.8499297166052168</v>
+        <v>0.8519195502771673</v>
       </c>
     </row>
     <row r="1259" spans="1:3">
@@ -14229,10 +14229,10 @@
         <v>43167</v>
       </c>
       <c r="B1259">
-        <v>0.1490200734742637</v>
+        <v>0.1470417557923421</v>
       </c>
       <c r="C1259">
-        <v>0.8509799265257364</v>
+        <v>0.8529582442076579</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
@@ -14240,10 +14240,10 @@
         <v>43168</v>
       </c>
       <c r="B1260">
-        <v>0.1501367084710806</v>
+        <v>0.1481461475648929</v>
       </c>
       <c r="C1260">
-        <v>0.8498632915289195</v>
+        <v>0.8518538524351071</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
@@ -14251,10 +14251,10 @@
         <v>43171</v>
       </c>
       <c r="B1261">
-        <v>0.151242621458812</v>
+        <v>0.1492399728141484</v>
       </c>
       <c r="C1261">
-        <v>0.8487573785411879</v>
+        <v>0.8507600271858515</v>
       </c>
     </row>
     <row r="1262" spans="1:3">
@@ -14262,10 +14262,10 @@
         <v>43172</v>
       </c>
       <c r="B1262">
-        <v>0.141</v>
+        <v>0.137</v>
       </c>
       <c r="C1262">
-        <v>0.859</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
@@ -14273,10 +14273,10 @@
         <v>43173</v>
       </c>
       <c r="B1263">
-        <v>0.1399933227410168</v>
+        <v>0.1360173589428809</v>
       </c>
       <c r="C1263">
-        <v>0.8600066772589832</v>
+        <v>0.8639826410571191</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
@@ -14284,10 +14284,10 @@
         <v>43174</v>
       </c>
       <c r="B1264">
-        <v>0.1392938666119149</v>
+        <v>0.1353346420353918</v>
       </c>
       <c r="C1264">
-        <v>0.8607061333880851</v>
+        <v>0.8646653579646082</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
@@ -14295,10 +14295,10 @@
         <v>43175</v>
       </c>
       <c r="B1265">
-        <v>0.1397169339854705</v>
+        <v>0.135747580889718</v>
       </c>
       <c r="C1265">
-        <v>0.8602830660145295</v>
+        <v>0.8642524191102821</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
@@ -14306,10 +14306,10 @@
         <v>43178</v>
       </c>
       <c r="B1266">
-        <v>0.1386622827432896</v>
+        <v>0.134718200181913</v>
       </c>
       <c r="C1266">
-        <v>0.8613377172567104</v>
+        <v>0.8652817998180871</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14317,10 +14317,10 @@
         <v>43179</v>
       </c>
       <c r="B1267">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="C1267">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="1268" spans="1:3">
@@ -14328,10 +14328,10 @@
         <v>43180</v>
       </c>
       <c r="B1268">
-        <v>0.145113841331192</v>
+        <v>0.1401105590579268</v>
       </c>
       <c r="C1268">
-        <v>0.854886158668808</v>
+        <v>0.8598894409420732</v>
       </c>
     </row>
     <row r="1269" spans="1:3">
@@ -14339,10 +14339,10 @@
         <v>43181</v>
       </c>
       <c r="B1269">
-        <v>0.1444234543083739</v>
+        <v>0.1394400928637907</v>
       </c>
       <c r="C1269">
-        <v>0.855576545691626</v>
+        <v>0.8605599071362093</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
@@ -14350,10 +14350,10 @@
         <v>43182</v>
       </c>
       <c r="B1270">
-        <v>0.1432403174785237</v>
+        <v>0.1382911817648894</v>
       </c>
       <c r="C1270">
-        <v>0.8567596825214763</v>
+        <v>0.8617088182351106</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
@@ -14361,10 +14361,10 @@
         <v>43185</v>
       </c>
       <c r="B1271">
-        <v>0.138644921821188</v>
+        <v>0.1338297612342789</v>
       </c>
       <c r="C1271">
-        <v>0.8613550781788121</v>
+        <v>0.8661702387657212</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14372,10 +14372,10 @@
         <v>43186</v>
       </c>
       <c r="B1272">
-        <v>0.153</v>
+        <v>0.149</v>
       </c>
       <c r="C1272">
-        <v>0.847</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="1273" spans="1:3">
@@ -14383,10 +14383,10 @@
         <v>43187</v>
       </c>
       <c r="B1273">
-        <v>0.1545709383381107</v>
+        <v>0.1505371674693098</v>
       </c>
       <c r="C1273">
-        <v>0.8454290616618894</v>
+        <v>0.8494628325306901</v>
       </c>
     </row>
     <row r="1274" spans="1:3">
@@ -14394,10 +14394,10 @@
         <v>43188</v>
       </c>
       <c r="B1274">
-        <v>0.152426942316699</v>
+        <v>0.1484392985938229</v>
       </c>
       <c r="C1274">
-        <v>0.847573057683301</v>
+        <v>0.851560701406177</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
@@ -14405,10 +14405,10 @@
         <v>43189</v>
       </c>
       <c r="B1275">
-        <v>0.1540190243101926</v>
+        <v>0.1499971010933562</v>
       </c>
       <c r="C1275">
-        <v>0.8459809756898073</v>
+        <v>0.8500028989066437</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
@@ -14416,10 +14416,10 @@
         <v>43192</v>
       </c>
       <c r="B1276">
-        <v>0.1545234597932049</v>
+        <v>0.1504907073982741</v>
       </c>
       <c r="C1276">
-        <v>0.8454765402067952</v>
+        <v>0.849509292601726</v>
       </c>
     </row>
     <row r="1277" spans="1:3">
@@ -14427,10 +14427,10 @@
         <v>43193</v>
       </c>
       <c r="B1277">
-        <v>0.1541978043462492</v>
+        <v>0.1501720413362415</v>
       </c>
       <c r="C1277">
-        <v>0.8458021956537508</v>
+        <v>0.8498279586637586</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14438,10 +14438,10 @@
         <v>43194</v>
       </c>
       <c r="B1278">
-        <v>0.1531565019299811</v>
+        <v>0.1491531308816259</v>
       </c>
       <c r="C1278">
-        <v>0.8468434980700189</v>
+        <v>0.850846869118374</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
@@ -14449,10 +14449,10 @@
         <v>43199</v>
       </c>
       <c r="B1279">
-        <v>0.1526183531424599</v>
+        <v>0.1486265800107187</v>
       </c>
       <c r="C1279">
-        <v>0.84738164685754</v>
+        <v>0.8513734199892814</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
@@ -14460,10 +14460,10 @@
         <v>43200</v>
       </c>
       <c r="B1280">
-        <v>0.1523080941880119</v>
+        <v>0.1483230155534228</v>
       </c>
       <c r="C1280">
-        <v>0.8476919058119882</v>
+        <v>0.8516769844465771</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
@@ -14471,10 +14471,10 @@
         <v>43201</v>
       </c>
       <c r="B1281">
-        <v>0.1543012763530678</v>
+        <v>0.1502732918791513</v>
       </c>
       <c r="C1281">
-        <v>0.8456987236469322</v>
+        <v>0.8497267081208487</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
@@ -14482,10 +14482,10 @@
         <v>43202</v>
       </c>
       <c r="B1282">
-        <v>0.1547058671366434</v>
+        <v>0.1506692026206359</v>
       </c>
       <c r="C1282">
-        <v>0.8452941328633565</v>
+        <v>0.8493307973793641</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
@@ -14493,10 +14493,10 @@
         <v>43203</v>
       </c>
       <c r="B1283">
-        <v>0.1534699531795401</v>
+        <v>0.1494598348466784</v>
       </c>
       <c r="C1283">
-        <v>0.84653004682046</v>
+        <v>0.8505401651533216</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
@@ -14504,10 +14504,10 @@
         <v>43206</v>
       </c>
       <c r="B1284">
-        <v>0.1525986473165097</v>
+        <v>0.1486072992069833</v>
       </c>
       <c r="C1284">
-        <v>0.8474013526834904</v>
+        <v>0.8513927007930167</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14515,10 +14515,10 @@
         <v>43207</v>
       </c>
       <c r="B1285">
-        <v>0.1508571188456362</v>
+        <v>0.1469034252637127</v>
       </c>
       <c r="C1285">
-        <v>0.8491428811543638</v>
+        <v>0.8530965747362873</v>
       </c>
     </row>
     <row r="1286" spans="1:3">
@@ -14526,10 +14526,10 @@
         <v>43208</v>
       </c>
       <c r="B1286">
-        <v>0.1485407343820632</v>
+        <v>0.1446374084213392</v>
       </c>
       <c r="C1286">
-        <v>0.8514592656179367</v>
+        <v>0.8553625915786608</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
@@ -14537,10 +14537,10 @@
         <v>43209</v>
       </c>
       <c r="B1287">
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="C1287">
-        <v>0.838</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
@@ -14548,10 +14548,10 @@
         <v>43210</v>
       </c>
       <c r="B1288">
-        <v>0.1633345201511247</v>
+        <v>0.1613212162607223</v>
       </c>
       <c r="C1288">
-        <v>0.8366654798488752</v>
+        <v>0.8386787837392777</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
@@ -14559,10 +14559,10 @@
         <v>43213</v>
       </c>
       <c r="B1289">
-        <v>0.1612111481514818</v>
+        <v>0.1592190366811623</v>
       </c>
       <c r="C1289">
-        <v>0.8387888518485183</v>
+        <v>0.8407809633188378</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
@@ -14570,10 +14570,10 @@
         <v>43214</v>
       </c>
       <c r="B1290">
-        <v>0.1610777095631828</v>
+        <v>0.1590869342755779</v>
       </c>
       <c r="C1290">
-        <v>0.8389222904368171</v>
+        <v>0.8409130657244221</v>
       </c>
     </row>
     <row r="1291" spans="1:3">
@@ -14581,10 +14581,10 @@
         <v>43215</v>
       </c>
       <c r="B1291">
-        <v>0.1640023206598883</v>
+        <v>0.1619823789401986</v>
       </c>
       <c r="C1291">
-        <v>0.8359976793401117</v>
+        <v>0.8380176210598014</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14592,10 +14592,10 @@
         <v>43216</v>
       </c>
       <c r="B1292">
-        <v>0.1636420639339249</v>
+        <v>0.1616257014918756</v>
       </c>
       <c r="C1292">
-        <v>0.8363579360660751</v>
+        <v>0.8383742985081244</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
@@ -14603,10 +14603,10 @@
         <v>43217</v>
       </c>
       <c r="B1293">
-        <v>0.1610975844801448</v>
+        <v>0.1591066101428239</v>
       </c>
       <c r="C1293">
-        <v>0.8389024155198552</v>
+        <v>0.8408933898571761</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
@@ -14614,10 +14614,10 @@
         <v>43222</v>
       </c>
       <c r="B1294">
-        <v>0.1613061748759217</v>
+        <v>0.1593131121754024</v>
       </c>
       <c r="C1294">
-        <v>0.8386938251240783</v>
+        <v>0.8406868878245977</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
@@ -14625,10 +14625,10 @@
         <v>43223</v>
       </c>
       <c r="B1295">
-        <v>0.1614517618687867</v>
+        <v>0.1594572423339361</v>
       </c>
       <c r="C1295">
-        <v>0.8385482381312133</v>
+        <v>0.840542757666064</v>
       </c>
     </row>
     <row r="1296" spans="1:3">
@@ -14636,10 +14636,10 @@
         <v>43224</v>
       </c>
       <c r="B1296">
-        <v>0.162549888711027</v>
+        <v>0.1605444005530618</v>
       </c>
       <c r="C1296">
-        <v>0.8374501112889731</v>
+        <v>0.8394555994469381</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
@@ -14647,10 +14647,10 @@
         <v>43227</v>
       </c>
       <c r="B1297">
-        <v>0.1620977820992626</v>
+        <v>0.1600968055413579</v>
       </c>
       <c r="C1297">
-        <v>0.8379022179007374</v>
+        <v>0.839903194458642</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14658,10 +14658,10 @@
         <v>43228</v>
       </c>
       <c r="B1298">
-        <v>0.1643633499198257</v>
+        <v>0.1623398250454878</v>
       </c>
       <c r="C1298">
-        <v>0.8356366500801743</v>
+        <v>0.8376601749545122</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
@@ -14669,10 +14669,10 @@
         <v>43229</v>
       </c>
       <c r="B1299">
-        <v>0.1657512543846034</v>
+        <v>0.163713990199584</v>
       </c>
       <c r="C1299">
-        <v>0.8342487456153965</v>
+        <v>0.8362860098004159</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
@@ -14680,10 +14680,10 @@
         <v>43230</v>
       </c>
       <c r="B1300">
-        <v>0.1656220387232552</v>
+        <v>0.1635860513129359</v>
       </c>
       <c r="C1300">
-        <v>0.8343779612767448</v>
+        <v>0.836413948687064</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
@@ -14691,10 +14691,10 @@
         <v>43231</v>
       </c>
       <c r="B1301">
-        <v>0.1663031244955262</v>
+        <v>0.1642604127874419</v>
       </c>
       <c r="C1301">
-        <v>0.8336968755044739</v>
+        <v>0.8357395872125581</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
@@ -14702,10 +14702,10 @@
         <v>43234</v>
       </c>
       <c r="B1302">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="C1302">
-        <v>0.849</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
@@ -14713,10 +14713,10 @@
         <v>43235</v>
       </c>
       <c r="B1303">
-        <v>0.1517456532590497</v>
+        <v>0.1507415919273884</v>
       </c>
       <c r="C1303">
-        <v>0.8482543467409502</v>
+        <v>0.8492584080726115</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
@@ -14724,10 +14724,10 @@
         <v>43236</v>
       </c>
       <c r="B1304">
-        <v>0.1524591517838857</v>
+        <v>0.1514512123338286</v>
       </c>
       <c r="C1304">
-        <v>0.8475408482161143</v>
+        <v>0.8485487876661715</v>
       </c>
     </row>
     <row r="1305" spans="1:3">
@@ -14735,10 +14735,10 @@
         <v>43237</v>
       </c>
       <c r="B1305">
-        <v>0.151659644476566</v>
+        <v>0.1506560511667228</v>
       </c>
       <c r="C1305">
-        <v>0.848340355523434</v>
+        <v>0.8493439488332772</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
@@ -14746,10 +14746,10 @@
         <v>43238</v>
       </c>
       <c r="B1306">
-        <v>0.1508100279466327</v>
+        <v>0.1498110640417494</v>
       </c>
       <c r="C1306">
-        <v>0.8491899720533672</v>
+        <v>0.8501889359582506</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
@@ -14757,10 +14757,10 @@
         <v>43241</v>
       </c>
       <c r="B1307">
-        <v>0.151892673998469</v>
+        <v>0.1508878129106491</v>
       </c>
       <c r="C1307">
-        <v>0.848107326001531</v>
+        <v>0.849112187089351</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14768,10 +14768,10 @@
         <v>43242</v>
       </c>
       <c r="B1308">
-        <v>0.1527205317911184</v>
+        <v>0.1517111736245698</v>
       </c>
       <c r="C1308">
-        <v>0.8472794682088814</v>
+        <v>0.8482888263754301</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
@@ -14779,10 +14779,10 @@
         <v>43243</v>
       </c>
       <c r="B1309">
-        <v>0.1524107352367559</v>
+        <v>0.1514030586980454</v>
       </c>
       <c r="C1309">
-        <v>0.8475892647632441</v>
+        <v>0.8485969413019546</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14790,10 +14790,10 @@
         <v>43244</v>
       </c>
       <c r="B1310">
-        <v>0.1506415642968028</v>
+        <v>0.1496435196500569</v>
       </c>
       <c r="C1310">
-        <v>0.8493584357031974</v>
+        <v>0.8503564803499432</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14801,10 +14801,10 @@
         <v>43245</v>
       </c>
       <c r="B1311">
-        <v>0.1497944349565283</v>
+        <v>0.1488010195275026</v>
       </c>
       <c r="C1311">
-        <v>0.8502055650434717</v>
+        <v>0.8511989804724975</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
@@ -14812,10 +14812,10 @@
         <v>43248</v>
       </c>
       <c r="B1312">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
       <c r="C1312">
-        <v>0.841</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
@@ -14823,10 +14823,10 @@
         <v>43249</v>
       </c>
       <c r="B1313">
-        <v>0.1591651022672959</v>
+        <v>0.1581642591729787</v>
       </c>
       <c r="C1313">
-        <v>0.840834897732704</v>
+        <v>0.8418357408270214</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
@@ -14834,10 +14834,10 @@
         <v>43250</v>
       </c>
       <c r="B1314">
-        <v>0.1580827202085835</v>
+        <v>0.157087411682468</v>
       </c>
       <c r="C1314">
-        <v>0.8419172797914165</v>
+        <v>0.842912588317532</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -14845,10 +14845,10 @@
         <v>43251</v>
       </c>
       <c r="B1315">
-        <v>0.1550558722723364</v>
+        <v>0.1540761335326549</v>
       </c>
       <c r="C1315">
-        <v>0.8449441277276635</v>
+        <v>0.8459238664673451</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14856,10 +14856,10 @@
         <v>43252</v>
       </c>
       <c r="B1316">
-        <v>0.1575726196229715</v>
+        <v>0.1565799254492494</v>
       </c>
       <c r="C1316">
-        <v>0.8424273803770285</v>
+        <v>0.8434200745507505</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
@@ -14867,10 +14867,10 @@
         <v>43255</v>
       </c>
       <c r="B1317">
-        <v>0.1563755974746008</v>
+        <v>0.155389053446449</v>
       </c>
       <c r="C1317">
-        <v>0.8436244025253992</v>
+        <v>0.8446109465535511</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -14878,10 +14878,10 @@
         <v>43256</v>
       </c>
       <c r="B1318">
-        <v>0.1573444195875991</v>
+        <v>0.1563528962314149</v>
       </c>
       <c r="C1318">
-        <v>0.8426555804124009</v>
+        <v>0.8436471037685851</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -14889,10 +14889,10 @@
         <v>43257</v>
       </c>
       <c r="B1319">
-        <v>0.1589998084370478</v>
+        <v>0.1579998094154992</v>
       </c>
       <c r="C1319">
-        <v>0.8410001915629521</v>
+        <v>0.8420001905845009</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14900,10 +14900,10 @@
         <v>43258</v>
       </c>
       <c r="B1320">
-        <v>0.158801531551535</v>
+        <v>0.157802545567036</v>
       </c>
       <c r="C1320">
-        <v>0.8411984684484649</v>
+        <v>0.8421974544329639</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
@@ -14911,10 +14911,10 @@
         <v>43259</v>
       </c>
       <c r="B1321">
-        <v>0.158591288251012</v>
+        <v>0.1575933770814409</v>
       </c>
       <c r="C1321">
-        <v>0.841408711748988</v>
+        <v>0.8424066229185592</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
@@ -14922,10 +14922,10 @@
         <v>43262</v>
       </c>
       <c r="B1322">
-        <v>0.1568921863680782</v>
+        <v>0.1559029855576191</v>
       </c>
       <c r="C1322">
-        <v>0.8431078136319218</v>
+        <v>0.8440970144423808</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
@@ -14933,10 +14933,10 @@
         <v>43263</v>
       </c>
       <c r="B1323">
-        <v>0.1566343146057408</v>
+        <v>0.1556464395162467</v>
       </c>
       <c r="C1323">
-        <v>0.8433656853942593</v>
+        <v>0.8443535604837533</v>
       </c>
     </row>
     <row r="1324" spans="1:3">
@@ -14944,10 +14944,10 @@
         <v>43264</v>
       </c>
       <c r="B1324">
-        <v>0.1582325825332981</v>
+        <v>0.1572365066730828</v>
       </c>
       <c r="C1324">
-        <v>0.8417674174667019</v>
+        <v>0.8427634933269171</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14955,10 +14955,10 @@
         <v>43265</v>
       </c>
       <c r="B1325">
-        <v>0.1567568623887282</v>
+        <v>0.1557683571566408</v>
       </c>
       <c r="C1325">
-        <v>0.8432431376112718</v>
+        <v>0.8442316428433593</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
@@ -14966,10 +14966,10 @@
         <v>43266</v>
       </c>
       <c r="B1326">
-        <v>0.1561959134752748</v>
+        <v>0.1552102944807568</v>
       </c>
       <c r="C1326">
-        <v>0.8438040865247252</v>
+        <v>0.8447897055192433</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
@@ -14977,10 +14977,10 @@
         <v>43270</v>
       </c>
       <c r="B1327">
-        <v>0.163</v>
+        <v>0.164</v>
       </c>
       <c r="C1327">
-        <v>0.837</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -14988,10 +14988,10 @@
         <v>43271</v>
       </c>
       <c r="B1328">
-        <v>0.1570875997935084</v>
+        <v>0.1580581770393376</v>
       </c>
       <c r="C1328">
-        <v>0.8429124002064916</v>
+        <v>0.8419418229606624</v>
       </c>
     </row>
     <row r="1329" spans="1:3">
@@ -14999,10 +14999,10 @@
         <v>43272</v>
       </c>
       <c r="B1329">
-        <v>0.1578487147109807</v>
+        <v>0.158823108487728</v>
       </c>
       <c r="C1329">
-        <v>0.8421512852890192</v>
+        <v>0.8411768915122722</v>
       </c>
     </row>
     <row r="1330" spans="1:3">
@@ -15010,10 +15010,10 @@
         <v>43273</v>
       </c>
       <c r="B1330">
-        <v>0.1559667300722766</v>
+        <v>0.1569316712943956</v>
       </c>
       <c r="C1330">
-        <v>0.8440332699277233</v>
+        <v>0.8430683287056043</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
@@ -15021,10 +15021,10 @@
         <v>43276</v>
       </c>
       <c r="B1331">
-        <v>0.1568536704586341</v>
+        <v>0.1578230729755813</v>
       </c>
       <c r="C1331">
-        <v>0.8431463295413659</v>
+        <v>0.8421769270244187</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
@@ -15032,10 +15032,10 @@
         <v>43277</v>
       </c>
       <c r="B1332">
-        <v>0.1552257050247732</v>
+        <v>0.1561869100164208</v>
       </c>
       <c r="C1332">
-        <v>0.8447742949752267</v>
+        <v>0.8438130899835792</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15043,10 +15043,10 @@
         <v>43278</v>
       </c>
       <c r="B1333">
-        <v>0.154624220264215</v>
+        <v>0.1555823866352184</v>
       </c>
       <c r="C1333">
-        <v>0.845375779735785</v>
+        <v>0.8444176133647816</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15054,10 +15054,10 @@
         <v>43279</v>
       </c>
       <c r="B1334">
-        <v>0.1522834634620959</v>
+        <v>0.1532297539032286</v>
       </c>
       <c r="C1334">
-        <v>0.847716536537904</v>
+        <v>0.8467702460967714</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15065,10 +15065,10 @@
         <v>43280</v>
       </c>
       <c r="B1335">
-        <v>0.1508370128032158</v>
+        <v>0.1517759242554502</v>
       </c>
       <c r="C1335">
-        <v>0.8491629871967842</v>
+        <v>0.8482240757445497</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
@@ -15076,10 +15076,10 @@
         <v>43283</v>
       </c>
       <c r="B1336">
-        <v>0.1541549085013404</v>
+        <v>0.1551107002697209</v>
       </c>
       <c r="C1336">
-        <v>0.8458450914986597</v>
+        <v>0.844889299730279</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
@@ -15087,10 +15087,10 @@
         <v>43284</v>
       </c>
       <c r="B1337">
-        <v>0.1506130820947581</v>
+        <v>0.1515508484208216</v>
       </c>
       <c r="C1337">
-        <v>0.849386917905242</v>
+        <v>0.8484491515791784</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15098,10 +15098,10 @@
         <v>43285</v>
       </c>
       <c r="B1338">
-        <v>0.150889007994923</v>
+        <v>0.1518281852319823</v>
       </c>
       <c r="C1338">
-        <v>0.849110992005077</v>
+        <v>0.8481718147680176</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
@@ -15109,10 +15109,10 @@
         <v>43286</v>
       </c>
       <c r="B1339">
-        <v>0.149093134678488</v>
+        <v>0.1500231088404868</v>
       </c>
       <c r="C1339">
-        <v>0.8509068653215121</v>
+        <v>0.8499768911595132</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15120,10 +15120,10 @@
         <v>43287</v>
       </c>
       <c r="B1340">
-        <v>0.1475944305684731</v>
+        <v>0.1485166881385024</v>
       </c>
       <c r="C1340">
-        <v>0.8524055694315269</v>
+        <v>0.8514833118614976</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15131,10 +15131,10 @@
         <v>43290</v>
       </c>
       <c r="B1341">
-        <v>0.1483131373323736</v>
+        <v>0.149239099541159</v>
       </c>
       <c r="C1341">
-        <v>0.8516868626676264</v>
+        <v>0.850760900458841</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15142,10 +15142,10 @@
         <v>43291</v>
       </c>
       <c r="B1342">
-        <v>0.1516639762997526</v>
+        <v>0.1526071102354516</v>
       </c>
       <c r="C1342">
-        <v>0.8483360237002475</v>
+        <v>0.8473928897645484</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15153,10 +15153,10 @@
         <v>43292</v>
       </c>
       <c r="B1343">
-        <v>0.1521835199192499</v>
+        <v>0.1531293014953714</v>
       </c>
       <c r="C1343">
-        <v>0.8478164800807499</v>
+        <v>0.8468706985046286</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15164,10 +15164,10 @@
         <v>43293</v>
       </c>
       <c r="B1344">
-        <v>0.1498799353313493</v>
+        <v>0.1508139473565826</v>
       </c>
       <c r="C1344">
-        <v>0.8501200646686506</v>
+        <v>0.8491860526434173</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15175,10 +15175,10 @@
         <v>43294</v>
       </c>
       <c r="B1345">
-        <v>0.1528800730498547</v>
+        <v>0.153829398081659</v>
       </c>
       <c r="C1345">
-        <v>0.8471199269501453</v>
+        <v>0.8461706019183409</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
@@ -15186,10 +15186,10 @@
         <v>43297</v>
       </c>
       <c r="B1346">
-        <v>0.153437881215236</v>
+        <v>0.1543900387341776</v>
       </c>
       <c r="C1346">
-        <v>0.8465621187847641</v>
+        <v>0.8456099612658224</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15197,10 +15197,10 @@
         <v>43298</v>
       </c>
       <c r="B1347">
-        <v>0.1528296342458371</v>
+        <v>0.1537787029290378</v>
       </c>
       <c r="C1347">
-        <v>0.8471703657541629</v>
+        <v>0.8462212970709623</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15208,10 +15208,10 @@
         <v>43299</v>
       </c>
       <c r="B1348">
-        <v>0.1522656254481059</v>
+        <v>0.1532118250773414</v>
       </c>
       <c r="C1348">
-        <v>0.8477343745518942</v>
+        <v>0.8467881749226587</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15219,10 +15219,10 @@
         <v>43300</v>
       </c>
       <c r="B1349">
-        <v>0.1514907209970131</v>
+        <v>0.1524329711239522</v>
       </c>
       <c r="C1349">
-        <v>0.8485092790029869</v>
+        <v>0.8475670288760477</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
@@ -15230,10 +15230,10 @@
         <v>43301</v>
       </c>
       <c r="B1350">
-        <v>0.1510275183791037</v>
+        <v>0.1519674034479522</v>
       </c>
       <c r="C1350">
-        <v>0.8489724816208962</v>
+        <v>0.8480325965520478</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15241,10 +15241,10 @@
         <v>43304</v>
       </c>
       <c r="B1351">
-        <v>0.1531512443326921</v>
+        <v>0.154101946914433</v>
       </c>
       <c r="C1351">
-        <v>0.8468487556673079</v>
+        <v>0.845898053085567</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15417,10 +15417,10 @@
         <v>43326</v>
       </c>
       <c r="B1367">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="C1367">
-        <v>0.856</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15428,10 +15428,10 @@
         <v>43327</v>
       </c>
       <c r="B1368">
-        <v>0.1434835153882789</v>
+        <v>0.1444805340729306</v>
       </c>
       <c r="C1368">
-        <v>0.8565164846117211</v>
+        <v>0.8555194659270694</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15439,10 +15439,10 @@
         <v>43328</v>
       </c>
       <c r="B1369">
-        <v>0.1406212385970061</v>
+        <v>0.1416016563868737</v>
       </c>
       <c r="C1369">
-        <v>0.8593787614029939</v>
+        <v>0.8583983436131263</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15450,10 +15450,10 @@
         <v>43329</v>
       </c>
       <c r="B1370">
-        <v>0.1399458799423095</v>
+        <v>0.1409223612296428</v>
       </c>
       <c r="C1370">
-        <v>0.8600541200576904</v>
+        <v>0.8590776387703571</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -15461,10 +15461,10 @@
         <v>43332</v>
       </c>
       <c r="B1371">
-        <v>0.1382681529508626</v>
+        <v>0.139234822956988</v>
       </c>
       <c r="C1371">
-        <v>0.8617318470491374</v>
+        <v>0.8607651770430119</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15472,10 +15472,10 @@
         <v>43333</v>
       </c>
       <c r="B1372">
-        <v>0.144</v>
+        <v>0.1406736247872878</v>
       </c>
       <c r="C1372">
-        <v>0.856</v>
+        <v>0.8593263752127122</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15483,10 +15483,10 @@
         <v>43334</v>
       </c>
       <c r="B1373">
-        <v>0.1461320063445442</v>
+        <v>0.1427645959497742</v>
       </c>
       <c r="C1373">
-        <v>0.8538679936554558</v>
+        <v>0.8572354040502258</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15494,10 +15494,10 @@
         <v>43335</v>
       </c>
       <c r="B1374">
-        <v>0.145273374786956</v>
+        <v>0.1419224617191305</v>
       </c>
       <c r="C1374">
-        <v>0.854726625213044</v>
+        <v>0.8580775382808695</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15505,10 +15505,10 @@
         <v>43336</v>
       </c>
       <c r="B1375">
-        <v>0.145744487026835</v>
+        <v>0.1423845174065386</v>
       </c>
       <c r="C1375">
-        <v>0.8542555129731649</v>
+        <v>0.8576154825934614</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15516,10 +15516,10 @@
         <v>43339</v>
       </c>
       <c r="B1376">
-        <v>0.145764515482658</v>
+        <v>0.1424041611003333</v>
       </c>
       <c r="C1376">
-        <v>0.8542354845173419</v>
+        <v>0.8575958388996666</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15527,10 +15527,10 @@
         <v>43340</v>
       </c>
       <c r="B1377">
-        <v>0.139</v>
+        <v>0.1453172415011685</v>
       </c>
       <c r="C1377">
-        <v>0.861</v>
+        <v>0.8546827584988316</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15538,10 +15538,10 @@
         <v>43341</v>
       </c>
       <c r="B1378">
-        <v>0.1389352063223851</v>
+        <v>0.1452499998680714</v>
       </c>
       <c r="C1378">
-        <v>0.8610647936776149</v>
+        <v>0.8547500001319287</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15549,10 +15549,10 @@
         <v>43342</v>
       </c>
       <c r="B1379">
-        <v>0.1383871136193717</v>
+        <v>0.1446811813949721</v>
       </c>
       <c r="C1379">
-        <v>0.8616128863806284</v>
+        <v>0.855318818605028</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
@@ -15560,10 +15560,10 @@
         <v>43343</v>
       </c>
       <c r="B1380">
-        <v>0.1369462689302847</v>
+        <v>0.1431856950930701</v>
       </c>
       <c r="C1380">
-        <v>0.8630537310697153</v>
+        <v>0.8568143049069298</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -15571,10 +15571,10 @@
         <v>43346</v>
       </c>
       <c r="B1381">
-        <v>0.1361090387298261</v>
+        <v>0.1423166098355551</v>
       </c>
       <c r="C1381">
-        <v>0.8638909612701738</v>
+        <v>0.8576833901644447</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15582,10 +15582,10 @@
         <v>43347</v>
       </c>
       <c r="B1382">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="C1382">
-        <v>0.853</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15593,10 +15593,10 @@
         <v>43348</v>
       </c>
       <c r="B1383">
-        <v>0.1485862185747412</v>
+        <v>0.1495951167723099</v>
       </c>
       <c r="C1383">
-        <v>0.8514137814252588</v>
+        <v>0.8504048832276901</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
@@ -15604,10 +15604,10 @@
         <v>43349</v>
       </c>
       <c r="B1384">
-        <v>0.1462278139953649</v>
+        <v>0.1472234676646021</v>
       </c>
       <c r="C1384">
-        <v>0.8537721860046351</v>
+        <v>0.8527765323353979</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15615,10 +15615,10 @@
         <v>43350</v>
       </c>
       <c r="B1385">
-        <v>0.1451500951263801</v>
+        <v>0.1461396667513336</v>
       </c>
       <c r="C1385">
-        <v>0.85484990487362</v>
+        <v>0.8538603332486664</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15626,10 +15626,10 @@
         <v>43353</v>
       </c>
       <c r="B1386">
-        <v>0.145572765816364</v>
+        <v>0.1465647249795174</v>
       </c>
       <c r="C1386">
-        <v>0.854427234183636</v>
+        <v>0.8534352750204827</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
@@ -15637,10 +15637,10 @@
         <v>43354</v>
       </c>
       <c r="B1387">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="C1387">
-        <v>0.848</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15648,10 +15648,10 @@
         <v>43355</v>
       </c>
       <c r="B1388">
-        <v>0.1519064948667844</v>
+        <v>0.1529059906241552</v>
       </c>
       <c r="C1388">
-        <v>0.8480935051332156</v>
+        <v>0.8470940093758449</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15659,10 +15659,10 @@
         <v>43356</v>
       </c>
       <c r="B1389">
-        <v>0.151222140405718</v>
+        <v>0.1522179415108747</v>
       </c>
       <c r="C1389">
-        <v>0.848777859594282</v>
+        <v>0.8477820584891254</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -15670,10 +15670,10 @@
         <v>43357</v>
       </c>
       <c r="B1390">
-        <v>0.1524080865011209</v>
+        <v>0.1534102855816686</v>
       </c>
       <c r="C1390">
-        <v>0.8475919134988791</v>
+        <v>0.8465897144183313</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15681,10 +15681,10 @@
         <v>43360</v>
       </c>
       <c r="B1391">
-        <v>0.1521705246728777</v>
+        <v>0.1531714439055322</v>
       </c>
       <c r="C1391">
-        <v>0.8478294753271223</v>
+        <v>0.8468285560944679</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15692,10 +15692,10 @@
         <v>43361</v>
       </c>
       <c r="B1392">
-        <v>0.1505036479364691</v>
+        <v>0.1514955622250992</v>
       </c>
       <c r="C1392">
-        <v>0.8494963520635309</v>
+        <v>0.8485044377749007</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -15703,10 +15703,10 @@
         <v>43362</v>
       </c>
       <c r="B1393">
-        <v>0.1529568151112983</v>
+        <v>0.1539619670638625</v>
       </c>
       <c r="C1393">
-        <v>0.8470431848887018</v>
+        <v>0.8460380329361373</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15714,10 +15714,10 @@
         <v>43363</v>
       </c>
       <c r="B1394">
-        <v>0.1546240936323589</v>
+        <v>0.1556381888891536</v>
       </c>
       <c r="C1394">
-        <v>0.8453759063676413</v>
+        <v>0.8443618111108464</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15725,10 +15725,10 @@
         <v>43364</v>
       </c>
       <c r="B1395">
-        <v>0.1545780297817259</v>
+        <v>0.1555918785338845</v>
       </c>
       <c r="C1395">
-        <v>0.8454219702182741</v>
+        <v>0.8444081214661154</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
@@ -15736,10 +15736,10 @@
         <v>43368</v>
       </c>
       <c r="B1396">
-        <v>0.1580490403602794</v>
+        <v>0.1590813710500717</v>
       </c>
       <c r="C1396">
-        <v>0.8419509596397207</v>
+        <v>0.8409186289499284</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
@@ -15747,10 +15747,10 @@
         <v>43369</v>
       </c>
       <c r="B1397">
-        <v>0.14</v>
+        <v>0.143</v>
       </c>
       <c r="C1397">
-        <v>0.86</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15758,10 +15758,10 @@
         <v>43370</v>
       </c>
       <c r="B1398">
-        <v>0.1411158654263258</v>
+        <v>0.1441357692837593</v>
       </c>
       <c r="C1398">
-        <v>0.8588841345736741</v>
+        <v>0.8558642307162406</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15769,10 +15769,10 @@
         <v>43371</v>
       </c>
       <c r="B1399">
-        <v>0.1402961718887938</v>
+        <v>0.1433014609077311</v>
       </c>
       <c r="C1399">
-        <v>0.8597038281112062</v>
+        <v>0.8566985390922689</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -15780,10 +15780,10 @@
         <v>43381</v>
       </c>
       <c r="B1400">
-        <v>0.1414152475289128</v>
+        <v>0.1444404807641633</v>
       </c>
       <c r="C1400">
-        <v>0.8585847524710871</v>
+        <v>0.8555595192358367</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
@@ -15791,10 +15791,10 @@
         <v>43382</v>
       </c>
       <c r="B1401">
-        <v>0.1363146675293298</v>
+        <v>0.1392484829204632</v>
       </c>
       <c r="C1401">
-        <v>0.8636853324706701</v>
+        <v>0.8607515170795368</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15802,10 +15802,10 @@
         <v>43383</v>
       </c>
       <c r="B1402">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="C1402">
-        <v>0.851</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -15813,10 +15813,10 @@
         <v>43384</v>
       </c>
       <c r="B1403">
-        <v>0.1487051398954201</v>
+        <v>0.1497035090911026</v>
       </c>
       <c r="C1403">
-        <v>0.8512948601045799</v>
+        <v>0.8502964909088974</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -15824,10 +15824,10 @@
         <v>43385</v>
       </c>
       <c r="B1404">
-        <v>0.1418046266794923</v>
+        <v>0.1427644369360787</v>
       </c>
       <c r="C1404">
-        <v>0.8581953733205077</v>
+        <v>0.8572355630639215</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
@@ -15835,10 +15835,10 @@
         <v>43388</v>
       </c>
       <c r="B1405">
-        <v>0.1429026161045735</v>
+        <v>0.1438686122753993</v>
       </c>
       <c r="C1405">
-        <v>0.8570973838954264</v>
+        <v>0.8561313877246007</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15846,10 +15846,10 @@
         <v>43389</v>
       </c>
       <c r="B1406">
-        <v>0.1409807348203613</v>
+        <v>0.1419358908301027</v>
       </c>
       <c r="C1406">
-        <v>0.8590192651796387</v>
+        <v>0.8580641091698973</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -15857,10 +15857,10 @@
         <v>43390</v>
       </c>
       <c r="B1407">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="C1407">
-        <v>0.853</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
@@ -15868,10 +15868,10 @@
         <v>43391</v>
       </c>
       <c r="B1408">
-        <v>0.1477370488999605</v>
+        <v>0.1487411885366352</v>
       </c>
       <c r="C1408">
-        <v>0.8522629511000394</v>
+        <v>0.8512588114633648</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
@@ -15879,10 +15879,10 @@
         <v>43392</v>
       </c>
       <c r="B1409">
-        <v>0.1445649184452114</v>
+        <v>0.1455511798549387</v>
       </c>
       <c r="C1409">
-        <v>0.8554350815547885</v>
+        <v>0.8544488201450613</v>
       </c>
     </row>
     <row r="1410" spans="1:3">
@@ -15890,10 +15890,10 @@
         <v>43395</v>
       </c>
       <c r="B1410">
-        <v>0.148085030147948</v>
+        <v>0.1490911211939953</v>
       </c>
       <c r="C1410">
-        <v>0.851914969852052</v>
+        <v>0.8509088788060049</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -15901,10 +15901,10 @@
         <v>43396</v>
       </c>
       <c r="B1411">
-        <v>0.1536854196974497</v>
+        <v>0.1547226494599811</v>
       </c>
       <c r="C1411">
-        <v>0.8463145803025504</v>
+        <v>0.845277350540019</v>
       </c>
     </row>
     <row r="1412" spans="1:3">
@@ -16022,10 +16022,10 @@
         <v>43411</v>
       </c>
       <c r="B1422">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="C1422">
-        <v>0.883</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16033,10 +16033,10 @@
         <v>43412</v>
       </c>
       <c r="B1423">
-        <v>0.1162817745144255</v>
+        <v>0.1152871117095158</v>
       </c>
       <c r="C1423">
-        <v>0.8837182254855744</v>
+        <v>0.8847128882904842</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
@@ -16044,10 +16044,10 @@
         <v>43413</v>
       </c>
       <c r="B1424">
-        <v>0.1157999540839849</v>
+        <v>0.1148088772830589</v>
       </c>
       <c r="C1424">
-        <v>0.8842000459160152</v>
+        <v>0.885191122716941</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16055,10 +16055,10 @@
         <v>43416</v>
       </c>
       <c r="B1425">
-        <v>0.1145676583990173</v>
+        <v>0.1135857733938558</v>
       </c>
       <c r="C1425">
-        <v>0.8854323416009827</v>
+        <v>0.8864142266061442</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16066,10 +16066,10 @@
         <v>43417</v>
       </c>
       <c r="B1426">
-        <v>0.1160658396340199</v>
+        <v>0.1150727833977015</v>
       </c>
       <c r="C1426">
-        <v>0.88393416036598</v>
+        <v>0.8849272166022986</v>
       </c>
     </row>
     <row r="1427" spans="1:3">
@@ -16077,10 +16077,10 @@
         <v>43418</v>
       </c>
       <c r="B1427">
-        <v>0.1172618705041689</v>
+        <v>0.121</v>
       </c>
       <c r="C1427">
-        <v>0.882738129495831</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
@@ -16088,10 +16088,10 @@
         <v>43419</v>
       </c>
       <c r="B1428">
-        <v>0.1161802835001804</v>
+        <v>0.1198886164467054</v>
       </c>
       <c r="C1428">
-        <v>0.8838197164998196</v>
+        <v>0.8801113835532945</v>
       </c>
     </row>
     <row r="1429" spans="1:3">
@@ -16099,10 +16099,10 @@
         <v>43420</v>
       </c>
       <c r="B1429">
-        <v>0.1174104535715252</v>
+        <v>0.1211526695871047</v>
       </c>
       <c r="C1429">
-        <v>0.8825895464284749</v>
+        <v>0.8788473304128954</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
@@ -16110,10 +16110,10 @@
         <v>43423</v>
       </c>
       <c r="B1430">
-        <v>0.1178241559071997</v>
+        <v>0.1215777414570362</v>
       </c>
       <c r="C1430">
-        <v>0.8821758440928001</v>
+        <v>0.8784222585429639</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
@@ -16121,10 +16121,10 @@
         <v>43424</v>
       </c>
       <c r="B1431">
-        <v>0.1186508089800397</v>
+        <v>0.1224270748985252</v>
       </c>
       <c r="C1431">
-        <v>0.8813491910199603</v>
+        <v>0.8775729251014749</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
@@ -16132,10 +16132,10 @@
         <v>43425</v>
       </c>
       <c r="B1432">
-        <v>0.116044596075464</v>
+        <v>0.1197491848511871</v>
       </c>
       <c r="C1432">
-        <v>0.883955403924536</v>
+        <v>0.8802508151488129</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -16143,10 +16143,10 @@
         <v>43426</v>
       </c>
       <c r="B1433">
-        <v>0.1163522387427236</v>
+        <v>0.120065314674229</v>
       </c>
       <c r="C1433">
-        <v>0.8836477612572763</v>
+        <v>0.879934685325771</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
@@ -16154,10 +16154,10 @@
         <v>43427</v>
       </c>
       <c r="B1434">
-        <v>0.1160298276182811</v>
+        <v>0.1197340087894287</v>
       </c>
       <c r="C1434">
-        <v>0.8839701723817188</v>
+        <v>0.8802659912105714</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
@@ -16165,10 +16165,10 @@
         <v>43430</v>
       </c>
       <c r="B1435">
-        <v>0.1133566184857528</v>
+        <v>0.1169867532697632</v>
       </c>
       <c r="C1435">
-        <v>0.8866433815142472</v>
+        <v>0.8830132467302368</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
@@ -16176,10 +16176,10 @@
         <v>43431</v>
       </c>
       <c r="B1436">
-        <v>0.1132492211926134</v>
+        <v>0.1168763700473093</v>
       </c>
       <c r="C1436">
-        <v>0.8867507788073865</v>
+        <v>0.8831236299526908</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16352,10 +16352,10 @@
         <v>43453</v>
       </c>
       <c r="B1452">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="C1452">
-        <v>0.877</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="1453" spans="1:3">
@@ -16363,10 +16363,10 @@
         <v>43454</v>
       </c>
       <c r="B1453">
-        <v>0.1216328730653711</v>
+        <v>0.1206424589296591</v>
       </c>
       <c r="C1453">
-        <v>0.8783671269346289</v>
+        <v>0.8793575410703409</v>
       </c>
     </row>
     <row r="1454" spans="1:3">
@@ -16374,10 +16374,10 @@
         <v>43455</v>
       </c>
       <c r="B1454">
-        <v>0.1209902551825015</v>
+        <v>0.1200043587698126</v>
       </c>
       <c r="C1454">
-        <v>0.8790097448174985</v>
+        <v>0.8799956412301875</v>
       </c>
     </row>
     <row r="1455" spans="1:3">
@@ -16385,10 +16385,10 @@
         <v>43458</v>
       </c>
       <c r="B1455">
-        <v>0.1197506860052723</v>
+        <v>0.1187735254699557</v>
       </c>
       <c r="C1455">
-        <v>0.8802493139947277</v>
+        <v>0.8812264745300443</v>
       </c>
     </row>
     <row r="1456" spans="1:3">
@@ -16396,10 +16396,10 @@
         <v>43459</v>
       </c>
       <c r="B1456">
-        <v>0.1202342382844748</v>
+        <v>0.1192536665441475</v>
       </c>
       <c r="C1456">
-        <v>0.8797657617155252</v>
+        <v>0.8807463334558525</v>
       </c>
     </row>
     <row r="1457" spans="1:3">
@@ -16407,10 +16407,10 @@
         <v>43460</v>
       </c>
       <c r="B1457">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="C1457">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="1458" spans="1:3">
@@ -16418,10 +16418,10 @@
         <v>43461</v>
       </c>
       <c r="B1458">
-        <v>0.1304312235875637</v>
+        <v>0.1294349186935793</v>
       </c>
       <c r="C1458">
-        <v>0.8695687764124364</v>
+        <v>0.8705650813064207</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
@@ -16429,10 +16429,10 @@
         <v>43462</v>
       </c>
       <c r="B1459">
-        <v>0.1297417513290679</v>
+        <v>0.1287499332233456</v>
       </c>
       <c r="C1459">
-        <v>0.870258248670932</v>
+        <v>0.8712500667766545</v>
       </c>
     </row>
     <row r="1460" spans="1:3">
@@ -16440,10 +16440,10 @@
         <v>43467</v>
       </c>
       <c r="B1460">
-        <v>0.1301917276935257</v>
+        <v>0.1291969803950866</v>
       </c>
       <c r="C1460">
-        <v>0.8698082723064743</v>
+        <v>0.8708030196049134</v>
       </c>
     </row>
     <row r="1461" spans="1:3">
@@ -16451,10 +16451,10 @@
         <v>43468</v>
       </c>
       <c r="B1461">
-        <v>0.1285035250372012</v>
+        <v>0.1275197856051142</v>
       </c>
       <c r="C1461">
-        <v>0.8714964749627988</v>
+        <v>0.8724802143948858</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
@@ -16462,10 +16462,10 @@
         <v>43469</v>
       </c>
       <c r="B1462">
-        <v>0.136</v>
+        <v>0.135</v>
       </c>
       <c r="C1462">
-        <v>0.864</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="1463" spans="1:3">
@@ -16473,10 +16473,10 @@
         <v>43472</v>
       </c>
       <c r="B1463">
-        <v>0.1386941961792887</v>
+        <v>0.1376775426594979</v>
       </c>
       <c r="C1463">
-        <v>0.8613058038207114</v>
+        <v>0.8623224573405022</v>
       </c>
     </row>
     <row r="1464" spans="1:3">
@@ -16484,10 +16484,10 @@
         <v>43473</v>
       </c>
       <c r="B1464">
-        <v>0.1397007623000626</v>
+        <v>0.138677918442706</v>
       </c>
       <c r="C1464">
-        <v>0.8602992376999373</v>
+        <v>0.861322081557294</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
@@ -16495,10 +16495,10 @@
         <v>43474</v>
       </c>
       <c r="B1465">
-        <v>0.1392843779434269</v>
+        <v>0.1382640927530801</v>
       </c>
       <c r="C1465">
-        <v>0.8607156220565731</v>
+        <v>0.86173590724692</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
@@ -16506,10 +16506,10 @@
         <v>43475</v>
       </c>
       <c r="B1466">
-        <v>0.1401981607292686</v>
+        <v>0.1391722642207597</v>
       </c>
       <c r="C1466">
-        <v>0.8598018392707314</v>
+        <v>0.8608277357792403</v>
       </c>
     </row>
     <row r="1467" spans="1:3">
@@ -16517,10 +16517,10 @@
         <v>43476</v>
       </c>
       <c r="B1467">
-        <v>0.135</v>
+        <v>0.133</v>
       </c>
       <c r="C1467">
-        <v>0.865</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="1468" spans="1:3">
@@ -16528,10 +16528,10 @@
         <v>43479</v>
       </c>
       <c r="B1468">
-        <v>0.1358730109339178</v>
+        <v>0.1338620789467753</v>
       </c>
       <c r="C1468">
-        <v>0.8641269890660822</v>
+        <v>0.8661379210532246</v>
       </c>
     </row>
     <row r="1469" spans="1:3">
@@ -16539,10 +16539,10 @@
         <v>43480</v>
       </c>
       <c r="B1469">
-        <v>0.134906820703041</v>
+        <v>0.1329079890322021</v>
       </c>
       <c r="C1469">
-        <v>0.8650931792969591</v>
+        <v>0.8670920109677979</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
@@ -16550,10 +16550,10 @@
         <v>43481</v>
       </c>
       <c r="B1470">
-        <v>0.1370972303022132</v>
+        <v>0.1350710118617527</v>
       </c>
       <c r="C1470">
-        <v>0.8629027696977867</v>
+        <v>0.8649289881382471</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
@@ -16561,10 +16561,10 @@
         <v>43482</v>
       </c>
       <c r="B1471">
-        <v>0.1369812303740425</v>
+        <v>0.1349564582149441</v>
       </c>
       <c r="C1471">
-        <v>0.8630187696259576</v>
+        <v>0.8650435417850558</v>
       </c>
     </row>
     <row r="1472" spans="1:3">
@@ -16572,10 +16572,10 @@
         <v>43483</v>
       </c>
       <c r="B1472">
-        <v>0.1361517782567171</v>
+        <v>0.1341373609294411</v>
       </c>
       <c r="C1472">
-        <v>0.8638482217432829</v>
+        <v>0.8658626390705588</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
@@ -16583,10 +16583,10 @@
         <v>43486</v>
       </c>
       <c r="B1473">
-        <v>0.1380539544587354</v>
+        <v>0.1360158249880161</v>
       </c>
       <c r="C1473">
-        <v>0.8619460455412646</v>
+        <v>0.863984175011984</v>
       </c>
     </row>
     <row r="1474" spans="1:3">
@@ -16594,10 +16594,10 @@
         <v>43487</v>
       </c>
       <c r="B1474">
-        <v>0.1387184644117294</v>
+        <v>0.1366720801436917</v>
       </c>
       <c r="C1474">
-        <v>0.8612815355882706</v>
+        <v>0.8633279198563084</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
@@ -16605,10 +16605,10 @@
         <v>43488</v>
       </c>
       <c r="B1475">
-        <v>0.1371006088796685</v>
+        <v>0.1350743483220935</v>
       </c>
       <c r="C1475">
-        <v>0.8628993911203315</v>
+        <v>0.8649256516779064</v>
       </c>
     </row>
     <row r="1476" spans="1:3">
@@ -16616,10 +16616,10 @@
         <v>43489</v>
       </c>
       <c r="B1476">
-        <v>0.1370908587264764</v>
+        <v>0.1350647197146923</v>
       </c>
       <c r="C1476">
-        <v>0.8629091412735236</v>
+        <v>0.8649352802853078</v>
       </c>
     </row>
     <row r="1477" spans="1:3">
@@ -16627,10 +16627,10 @@
         <v>43490</v>
       </c>
       <c r="B1477">
-        <v>0.1377497405693815</v>
+        <v>0.1357153951450254</v>
       </c>
       <c r="C1477">
-        <v>0.8622502594306185</v>
+        <v>0.8642846048549747</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
@@ -16638,10 +16638,10 @@
         <v>43493</v>
       </c>
       <c r="B1478">
-        <v>0.1384159545940831</v>
+        <v>0.1363733263665829</v>
       </c>
       <c r="C1478">
-        <v>0.8615840454059168</v>
+        <v>0.8636266736334172</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
@@ -16649,10 +16649,10 @@
         <v>43494</v>
       </c>
       <c r="B1479">
-        <v>0.1383572594499052</v>
+        <v>0.136315360355194</v>
       </c>
       <c r="C1479">
-        <v>0.8616427405500947</v>
+        <v>0.8636846396448059</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -16660,10 +16660,10 @@
         <v>43495</v>
       </c>
       <c r="B1480">
-        <v>0.1382563000795757</v>
+        <v>0.1362156554121507</v>
       </c>
       <c r="C1480">
-        <v>0.8617436999204243</v>
+        <v>0.8637843445878493</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
@@ -16671,10 +16671,10 @@
         <v>43496</v>
       </c>
       <c r="B1481">
-        <v>0.1371756679331289</v>
+        <v>0.1351484717941289</v>
       </c>
       <c r="C1481">
-        <v>0.862824332066871</v>
+        <v>0.864851528205871</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
@@ -16682,10 +16682,10 @@
         <v>43497</v>
       </c>
       <c r="B1482">
-        <v>0.1378135819454285</v>
+        <v>0.1357784421533604</v>
       </c>
       <c r="C1482">
-        <v>0.8621864180545716</v>
+        <v>0.8642215578466396</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
@@ -16693,10 +16693,10 @@
         <v>43507</v>
       </c>
       <c r="B1483">
-        <v>0.1398413832866751</v>
+        <v>0.1377810836419325</v>
       </c>
       <c r="C1483">
-        <v>0.8601586167133248</v>
+        <v>0.8622189163580674</v>
       </c>
     </row>
     <row r="1484" spans="1:3">
@@ -16704,10 +16704,10 @@
         <v>43508</v>
       </c>
       <c r="B1484">
-        <v>0.1420202787709029</v>
+        <v>0.1399330996355039</v>
       </c>
       <c r="C1484">
-        <v>0.857979721229097</v>
+        <v>0.8600669003644962</v>
       </c>
     </row>
     <row r="1485" spans="1:3">
@@ -16715,10 +16715,10 @@
         <v>43509</v>
       </c>
       <c r="B1485">
-        <v>0.1428741777762426</v>
+        <v>0.1407765085059063</v>
       </c>
       <c r="C1485">
-        <v>0.8571258222237574</v>
+        <v>0.8592234914940936</v>
       </c>
     </row>
     <row r="1486" spans="1:3">
@@ -16726,10 +16726,10 @@
         <v>43510</v>
       </c>
       <c r="B1486">
-        <v>0.1451818099345794</v>
+        <v>0.1430559148807052</v>
       </c>
       <c r="C1486">
-        <v>0.8548181900654206</v>
+        <v>0.8569440851192948</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
@@ -16737,10 +16737,10 @@
         <v>43511</v>
       </c>
       <c r="B1487">
-        <v>0.131</v>
+        <v>0.129</v>
       </c>
       <c r="C1487">
-        <v>0.869</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -16748,10 +16748,10 @@
         <v>43514</v>
       </c>
       <c r="B1488">
-        <v>0.129174681226946</v>
+        <v>0.1271984696344207</v>
       </c>
       <c r="C1488">
-        <v>0.870825318773054</v>
+        <v>0.8728015303655793</v>
       </c>
     </row>
     <row r="1489" spans="1:3">
@@ -16759,10 +16759,10 @@
         <v>43515</v>
       </c>
       <c r="B1489">
-        <v>0.1328698108160214</v>
+        <v>0.1308455623747778</v>
       </c>
       <c r="C1489">
-        <v>0.8671301891839787</v>
+        <v>0.8691544376252223</v>
       </c>
     </row>
     <row r="1490" spans="1:3">
@@ -16770,10 +16770,10 @@
         <v>43516</v>
       </c>
       <c r="B1490">
-        <v>0.1328010239688568</v>
+        <v>0.1307776654341034</v>
       </c>
       <c r="C1490">
-        <v>0.8671989760311433</v>
+        <v>0.8692223345658966</v>
       </c>
     </row>
     <row r="1491" spans="1:3">
@@ -16781,10 +16781,10 @@
         <v>43517</v>
       </c>
       <c r="B1491">
-        <v>0.1330938264989272</v>
+        <v>0.131066681068317</v>
       </c>
       <c r="C1491">
-        <v>0.8669061735010728</v>
+        <v>0.868933318931683</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
@@ -16792,10 +16792,10 @@
         <v>43518</v>
       </c>
       <c r="B1492">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="C1492">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16803,10 +16803,10 @@
         <v>43521</v>
       </c>
       <c r="B1493">
-        <v>0.1224530551175286</v>
+        <v>0.1204177653999572</v>
       </c>
       <c r="C1493">
-        <v>0.8775469448824714</v>
+        <v>0.8795822346000428</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
@@ -16814,10 +16814,10 @@
         <v>43522</v>
       </c>
       <c r="B1494">
-        <v>0.128783376773995</v>
+        <v>0.1266580569610146</v>
       </c>
       <c r="C1494">
-        <v>0.8712166232260051</v>
+        <v>0.8733419430389854</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
@@ -16825,10 +16825,10 @@
         <v>43523</v>
       </c>
       <c r="B1495">
-        <v>0.1278553728967777</v>
+        <v>0.1257431575794072</v>
       </c>
       <c r="C1495">
-        <v>0.8721446271032222</v>
+        <v>0.8742568424205928</v>
       </c>
     </row>
     <row r="1496" spans="1:3">
@@ -16836,10 +16836,10 @@
         <v>43524</v>
       </c>
       <c r="B1496">
-        <v>0.1276552273614885</v>
+        <v>0.125545842548816</v>
       </c>
       <c r="C1496">
-        <v>0.8723447726385114</v>
+        <v>0.874454157451184</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
@@ -16847,10 +16847,10 @@
         <v>43525</v>
       </c>
       <c r="B1497">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="C1497">
-        <v>0.907</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="1498" spans="1:3">
@@ -16858,10 +16858,10 @@
         <v>43528</v>
       </c>
       <c r="B1498">
-        <v>0.09461905243037649</v>
+        <v>0.09258778840101069</v>
       </c>
       <c r="C1498">
-        <v>0.9053809475696236</v>
+        <v>0.9074122115989894</v>
       </c>
     </row>
     <row r="1499" spans="1:3">
@@ -16869,10 +16869,10 @@
         <v>43529</v>
       </c>
       <c r="B1499">
-        <v>0.09578779116606072</v>
+        <v>0.09373403446668852</v>
       </c>
       <c r="C1499">
-        <v>0.9042122088339394</v>
+        <v>0.9062659655333115</v>
       </c>
     </row>
     <row r="1500" spans="1:3">
@@ -16880,10 +16880,10 @@
         <v>43530</v>
       </c>
       <c r="B1500">
-        <v>0.09675130699978725</v>
+        <v>0.09467905497557548</v>
       </c>
       <c r="C1500">
-        <v>0.9032486930002127</v>
+        <v>0.9053209450244245</v>
       </c>
     </row>
     <row r="1501" spans="1:3">
@@ -16891,10 +16891,10 @@
         <v>43531</v>
       </c>
       <c r="B1501">
-        <v>0.09770695264041211</v>
+        <v>0.09561639902082215</v>
       </c>
       <c r="C1501">
-        <v>0.9022930473595878</v>
+        <v>0.9043836009791778</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
@@ -16902,10 +16902,10 @@
         <v>43532</v>
       </c>
       <c r="B1502">
-        <v>0.09725032504684003</v>
+        <v>0.09516851101472547</v>
       </c>
       <c r="C1502">
-        <v>0.9027496749531599</v>
+        <v>0.9048314889852745</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
@@ -16913,10 +16913,10 @@
         <v>43535</v>
       </c>
       <c r="B1503">
-        <v>0.09365939096885974</v>
+        <v>0.09164664336326417</v>
       </c>
       <c r="C1503">
-        <v>0.9063406090311403</v>
+        <v>0.9083533566367358</v>
       </c>
     </row>
     <row r="1504" spans="1:3">
@@ -16924,10 +16924,10 @@
         <v>43536</v>
       </c>
       <c r="B1504">
-        <v>0.09571883064376786</v>
+        <v>0.09366639934320065</v>
       </c>
       <c r="C1504">
-        <v>0.904281169356232</v>
+        <v>0.9063336006567992</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -16935,10 +16935,10 @@
         <v>43537</v>
       </c>
       <c r="B1505">
-        <v>0.09655354138912853</v>
+        <v>0.09448508208479081</v>
       </c>
       <c r="C1505">
-        <v>0.9034464586108714</v>
+        <v>0.9055149179152092</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
@@ -16946,10 +16946,10 @@
         <v>43538</v>
       </c>
       <c r="B1506">
-        <v>0.09552214462265275</v>
+        <v>0.09347349477853638</v>
       </c>
       <c r="C1506">
-        <v>0.9044778553773473</v>
+        <v>0.9065265052214636</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
@@ -16957,10 +16957,10 @@
         <v>43539</v>
       </c>
       <c r="B1507">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C1507">
-        <v>0.915</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
@@ -16968,10 +16968,10 @@
         <v>43542</v>
       </c>
       <c r="B1508">
-        <v>0.08597725326750526</v>
+        <v>0.0849668237897349</v>
       </c>
       <c r="C1508">
-        <v>0.9140227467324947</v>
+        <v>0.915033176210265</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -16979,10 +16979,10 @@
         <v>43543</v>
       </c>
       <c r="B1509">
-        <v>0.08815873643271201</v>
+        <v>0.08712511330746196</v>
       </c>
       <c r="C1509">
-        <v>0.9118412635672879</v>
+        <v>0.912874886692538</v>
       </c>
     </row>
     <row r="1510" spans="1:3">
@@ -16990,10 +16990,10 @@
         <v>43544</v>
       </c>
       <c r="B1510">
-        <v>0.08795910651609018</v>
+        <v>0.08692760083390226</v>
       </c>
       <c r="C1510">
-        <v>0.9120408934839097</v>
+        <v>0.9130723991660978</v>
       </c>
     </row>
     <row r="1511" spans="1:3">
@@ -17001,10 +17001,10 @@
         <v>43545</v>
       </c>
       <c r="B1511">
-        <v>0.08795754780684713</v>
+        <v>0.08692605866163193</v>
       </c>
       <c r="C1511">
-        <v>0.9120424521931528</v>
+        <v>0.9130739413383681</v>
       </c>
     </row>
     <row r="1512" spans="1:3">
@@ -17012,10 +17012,10 @@
         <v>43546</v>
       </c>
       <c r="B1512">
-        <v>0.08821328461487182</v>
+        <v>0.081</v>
       </c>
       <c r="C1512">
-        <v>0.9117867153851282</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="1513" spans="1:3">
@@ -17023,10 +17023,10 @@
         <v>43549</v>
       </c>
       <c r="B1513">
-        <v>0.08824884740218425</v>
+        <v>0.08103291322617601</v>
       </c>
       <c r="C1513">
-        <v>0.9117511525978158</v>
+        <v>0.9189670867738241</v>
       </c>
     </row>
     <row r="1514" spans="1:3">
@@ -17034,10 +17034,10 @@
         <v>43550</v>
       </c>
       <c r="B1514">
-        <v>0.08648460140178356</v>
+        <v>0.07940036327215384</v>
       </c>
       <c r="C1514">
-        <v>0.9135153985982164</v>
+        <v>0.9205996367278462</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
@@ -17045,10 +17045,10 @@
         <v>43551</v>
       </c>
       <c r="B1515">
-        <v>0.08519678890832767</v>
+        <v>0.07820900848453263</v>
       </c>
       <c r="C1515">
-        <v>0.9148032110916724</v>
+        <v>0.9217909915154674</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
@@ -17056,10 +17056,10 @@
         <v>43552</v>
       </c>
       <c r="B1516">
-        <v>0.08605256814606316</v>
+        <v>0.07900065882356976</v>
       </c>
       <c r="C1516">
-        <v>0.9139474318539369</v>
+        <v>0.9209993411764302</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
@@ -17067,10 +17067,10 @@
         <v>43553</v>
       </c>
       <c r="B1517">
-        <v>0.08550339981789065</v>
+        <v>0.07849262915232361</v>
       </c>
       <c r="C1517">
-        <v>0.9144966001821094</v>
+        <v>0.9215073708476764</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
@@ -17078,10 +17078,10 @@
         <v>43556</v>
       </c>
       <c r="B1518">
-        <v>0.0883758818754415</v>
+        <v>0.08115048486880083</v>
       </c>
       <c r="C1518">
-        <v>0.9116241181245585</v>
+        <v>0.9188495151311992</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
@@ -17089,10 +17089,10 @@
         <v>43557</v>
       </c>
       <c r="B1519">
-        <v>0.0907711547313713</v>
+        <v>0.08336783481186685</v>
       </c>
       <c r="C1519">
-        <v>0.9092288452686287</v>
+        <v>0.9166321651881332</v>
       </c>
     </row>
     <row r="1520" spans="1:3">
@@ -17100,10 +17100,10 @@
         <v>43558</v>
       </c>
       <c r="B1520">
-        <v>0.09085071865371794</v>
+        <v>0.08344150500936288</v>
       </c>
       <c r="C1520">
-        <v>0.9091492813462821</v>
+        <v>0.916558494990637</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
@@ -17111,10 +17111,10 @@
         <v>43559</v>
       </c>
       <c r="B1521">
-        <v>0.09196406061316589</v>
+        <v>0.0844724861031681</v>
       </c>
       <c r="C1521">
-        <v>0.9080359393868341</v>
+        <v>0.915527513896832</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
@@ -17122,10 +17122,10 @@
         <v>43563</v>
       </c>
       <c r="B1522">
-        <v>0.073</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C1522">
-        <v>0.927</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
@@ -17133,10 +17133,10 @@
         <v>43564</v>
       </c>
       <c r="B1523">
-        <v>0.07288766211962386</v>
+        <v>0.07188908165455099</v>
       </c>
       <c r="C1523">
-        <v>0.9271123378803762</v>
+        <v>0.928110918345449</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
@@ -17144,10 +17144,10 @@
         <v>43565</v>
       </c>
       <c r="B1524">
-        <v>0.07317788391444059</v>
+        <v>0.07217563687355347</v>
       </c>
       <c r="C1524">
-        <v>0.9268221160855594</v>
+        <v>0.9278243631264466</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
@@ -17155,10 +17155,10 @@
         <v>43566</v>
       </c>
       <c r="B1525">
-        <v>0.07335962072455662</v>
+        <v>0.07235507892636013</v>
       </c>
       <c r="C1525">
-        <v>0.9266403792754433</v>
+        <v>0.9276449210736399</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
@@ -17166,10 +17166,10 @@
         <v>43567</v>
       </c>
       <c r="B1526">
-        <v>0.07188625948617755</v>
+        <v>0.07090034931586582</v>
       </c>
       <c r="C1526">
-        <v>0.9281137405138224</v>
+        <v>0.9290996506841341</v>
       </c>
     </row>
     <row r="1527" spans="1:3">
@@ -17177,10 +17177,10 @@
         <v>43570</v>
       </c>
       <c r="B1527">
-        <v>0.07172035209197652</v>
+        <v>0.07073654389851576</v>
       </c>
       <c r="C1527">
-        <v>0.9282796479080234</v>
+        <v>0.9292634561014842</v>
       </c>
     </row>
     <row r="1528" spans="1:3">
@@ -17188,10 +17188,10 @@
         <v>43571</v>
       </c>
       <c r="B1528">
-        <v>0.07149407014903082</v>
+        <v>0.07051313014732068</v>
       </c>
       <c r="C1528">
-        <v>0.9285059298509691</v>
+        <v>0.9294868698526793</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
@@ -17199,10 +17199,10 @@
         <v>43572</v>
       </c>
       <c r="B1529">
-        <v>0.0733380150758897</v>
+        <v>0.07233374603776858</v>
       </c>
       <c r="C1529">
-        <v>0.9266619849241102</v>
+        <v>0.9276662539622315</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
@@ -17210,10 +17210,10 @@
         <v>43573</v>
       </c>
       <c r="B1530">
-        <v>0.07347454659925252</v>
+        <v>0.07246855415061748</v>
       </c>
       <c r="C1530">
-        <v>0.9265254534007474</v>
+        <v>0.9275314458493825</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
@@ -17221,10 +17221,10 @@
         <v>43574</v>
       </c>
       <c r="B1531">
-        <v>0.07317214660450151</v>
+        <v>0.07216997202326667</v>
       </c>
       <c r="C1531">
-        <v>0.9268278533954986</v>
+        <v>0.9278300279767333</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
@@ -17232,10 +17232,10 @@
         <v>43577</v>
       </c>
       <c r="B1532">
-        <v>0.0738301811824153</v>
+        <v>0.07281970218240585</v>
       </c>
       <c r="C1532">
-        <v>0.9261698188175846</v>
+        <v>0.927180297817594</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
@@ -17243,10 +17243,10 @@
         <v>43578</v>
       </c>
       <c r="B1533">
-        <v>0.07239529752030599</v>
+        <v>0.07140294306510282</v>
       </c>
       <c r="C1533">
-        <v>0.9276047024796941</v>
+        <v>0.9285970569348972</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
@@ -17254,10 +17254,10 @@
         <v>43579</v>
       </c>
       <c r="B1534">
-        <v>0.0720773475110365</v>
+        <v>0.07108901733117348</v>
       </c>
       <c r="C1534">
-        <v>0.9279226524889634</v>
+        <v>0.9289109826688265</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
@@ -17265,10 +17265,10 @@
         <v>43580</v>
       </c>
       <c r="B1535">
-        <v>0.07239724343563061</v>
+        <v>0.07140486436016918</v>
       </c>
       <c r="C1535">
-        <v>0.9276027565643693</v>
+        <v>0.9285951356398309</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
@@ -17276,10 +17276,10 @@
         <v>43581</v>
       </c>
       <c r="B1536">
-        <v>0.07063461682853063</v>
+        <v>0.06966458427048761</v>
       </c>
       <c r="C1536">
-        <v>0.9293653831714694</v>
+        <v>0.9303354157295124</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
@@ -17287,10 +17287,10 @@
         <v>43584</v>
       </c>
       <c r="B1537">
-        <v>0.06980711877164525</v>
+        <v>0.06884760847420573</v>
       </c>
       <c r="C1537">
-        <v>0.9301928812283548</v>
+        <v>0.9311523915257943</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
@@ -17298,10 +17298,10 @@
         <v>43585</v>
       </c>
       <c r="B1538">
-        <v>0.06953655981726539</v>
+        <v>0.06858049421471749</v>
       </c>
       <c r="C1538">
-        <v>0.9304634401827345</v>
+        <v>0.9314195057852825</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
@@ -17309,10 +17309,10 @@
         <v>43591</v>
       </c>
       <c r="B1539">
-        <v>0.06978139553509698</v>
+        <v>0.06882221264815945</v>
       </c>
       <c r="C1539">
-        <v>0.930218604464903</v>
+        <v>0.9311777873518405</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
@@ -17320,10 +17320,10 @@
         <v>43592</v>
       </c>
       <c r="B1540">
-        <v>0.06557799254684485</v>
+        <v>0.0646725707355381</v>
       </c>
       <c r="C1540">
-        <v>0.9344220074531552</v>
+        <v>0.9353274292644619</v>
       </c>
     </row>
     <row r="1541" spans="1:3">
@@ -17331,10 +17331,10 @@
         <v>43593</v>
       </c>
       <c r="B1541">
-        <v>0.06619302647419618</v>
+        <v>0.06527970625174037</v>
       </c>
       <c r="C1541">
-        <v>0.9338069735258038</v>
+        <v>0.9347202937482596</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
@@ -17342,10 +17342,10 @@
         <v>43594</v>
       </c>
       <c r="B1542">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="C1542">
-        <v>0.921</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
@@ -17353,10 +17353,10 @@
         <v>43595</v>
       </c>
       <c r="B1543">
-        <v>0.07770589764155152</v>
+        <v>0.0767209141145134</v>
       </c>
       <c r="C1543">
-        <v>0.9222941023584484</v>
+        <v>0.9232790858854866</v>
       </c>
     </row>
     <row r="1544" spans="1:3">
@@ -17364,10 +17364,10 @@
         <v>43598</v>
       </c>
       <c r="B1544">
-        <v>0.08026108965873148</v>
+        <v>0.07924650003223839</v>
       </c>
       <c r="C1544">
-        <v>0.9197389103412685</v>
+        <v>0.9207534999677616</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
@@ -17375,10 +17375,10 @@
         <v>43599</v>
       </c>
       <c r="B1545">
-        <v>0.0790556055178344</v>
+        <v>0.07805496130343641</v>
       </c>
       <c r="C1545">
-        <v>0.9209443944821656</v>
+        <v>0.9219450386965635</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
@@ -17386,10 +17386,10 @@
         <v>43600</v>
       </c>
       <c r="B1546">
-        <v>0.07852746466913604</v>
+        <v>0.07753294258918782</v>
       </c>
       <c r="C1546">
-        <v>0.9214725353308638</v>
+        <v>0.9224670574108121</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
@@ -17397,10 +17397,10 @@
         <v>43601</v>
       </c>
       <c r="B1547">
-        <v>0.08015636415006229</v>
+        <v>0.07914298445446098</v>
       </c>
       <c r="C1547">
-        <v>0.9198436358499377</v>
+        <v>0.920857015545539</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
@@ -17408,10 +17408,10 @@
         <v>43602</v>
       </c>
       <c r="B1548">
-        <v>0.08049512282513345</v>
+        <v>0.0794778304076509</v>
       </c>
       <c r="C1548">
-        <v>0.9195048771748665</v>
+        <v>0.9205221695923492</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
@@ -17419,10 +17419,10 @@
         <v>43605</v>
       </c>
       <c r="B1549">
-        <v>0.0784670304483584</v>
+        <v>0.07747320939660376</v>
       </c>
       <c r="C1549">
-        <v>0.9215329695516417</v>
+        <v>0.9225267906033962</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
@@ -17430,10 +17430,10 @@
         <v>43606</v>
       </c>
       <c r="B1550">
-        <v>0.07790910310710322</v>
+        <v>0.07692175861818619</v>
       </c>
       <c r="C1550">
-        <v>0.9220908968928968</v>
+        <v>0.9230782413818137</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
@@ -17441,10 +17441,10 @@
         <v>43607</v>
       </c>
       <c r="B1551">
-        <v>0.07897718195596724</v>
+        <v>0.07797744633735992</v>
       </c>
       <c r="C1551">
-        <v>0.9210228180440327</v>
+        <v>0.9220225536626401</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
@@ -17452,10 +17452,10 @@
         <v>43608</v>
       </c>
       <c r="B1552">
-        <v>0.07864738999678685</v>
+        <v>0.07765147709426443</v>
       </c>
       <c r="C1552">
-        <v>0.9213526100032132</v>
+        <v>0.9223485229057355</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
@@ -17463,10 +17463,10 @@
         <v>43609</v>
       </c>
       <c r="B1553">
-        <v>0.07734364436885813</v>
+        <v>0.07636287249819483</v>
       </c>
       <c r="C1553">
-        <v>0.9226563556311419</v>
+        <v>0.9236371275018052</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
@@ -17474,10 +17474,10 @@
         <v>43612</v>
       </c>
       <c r="B1554">
-        <v>0.07738105398339651</v>
+        <v>0.07639984701317015</v>
       </c>
       <c r="C1554">
-        <v>0.9226189460166034</v>
+        <v>0.9236001529868298</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
@@ -17485,10 +17485,10 @@
         <v>43613</v>
       </c>
       <c r="B1555">
-        <v>0.078515400249075</v>
+        <v>0.07752101810672196</v>
       </c>
       <c r="C1555">
-        <v>0.921484599750925</v>
+        <v>0.922478981893278</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
@@ -17496,10 +17496,10 @@
         <v>43614</v>
       </c>
       <c r="B1556">
-        <v>0.07906916542785446</v>
+        <v>0.07806836412867157</v>
       </c>
       <c r="C1556">
-        <v>0.9209308345721455</v>
+        <v>0.9219316358713284</v>
       </c>
     </row>
     <row r="1557" spans="1:3">
@@ -17507,10 +17507,10 @@
         <v>43615</v>
       </c>
       <c r="B1557">
-        <v>0.0788901887308474</v>
+        <v>0.07789146118949417</v>
       </c>
       <c r="C1557">
-        <v>0.9211098112691527</v>
+        <v>0.9221085388105059</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
@@ -17518,10 +17518,10 @@
         <v>43616</v>
       </c>
       <c r="B1558">
-        <v>0.0784386597659185</v>
+        <v>0.07744516784418981</v>
       </c>
       <c r="C1558">
-        <v>0.9215613402340815</v>
+        <v>0.9225548321558101</v>
       </c>
     </row>
     <row r="1559" spans="1:3">
@@ -17529,10 +17529,10 @@
         <v>43619</v>
       </c>
       <c r="B1559">
-        <v>0.07822203400708666</v>
+        <v>0.07723105589502342</v>
       </c>
       <c r="C1559">
-        <v>0.9217779659929134</v>
+        <v>0.9227689441049767</v>
       </c>
     </row>
     <row r="1560" spans="1:3">
@@ -17540,10 +17540,10 @@
         <v>43620</v>
       </c>
       <c r="B1560">
-        <v>0.07803746548182261</v>
+        <v>0.07704863018069304</v>
       </c>
       <c r="C1560">
-        <v>0.9219625345181774</v>
+        <v>0.9229513698193069</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
@@ -17551,10 +17551,10 @@
         <v>43621</v>
       </c>
       <c r="B1561">
-        <v>0.07727779338233046</v>
+        <v>0.07629778749632782</v>
       </c>
       <c r="C1561">
-        <v>0.9227222066176695</v>
+        <v>0.9237022125036722</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
@@ -17562,10 +17562,10 @@
         <v>43622</v>
       </c>
       <c r="B1562">
-        <v>0.08799999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="C1562">
-        <v>0.912</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
@@ -17573,10 +17573,10 @@
         <v>43626</v>
       </c>
       <c r="B1563">
-        <v>0.08703424422243562</v>
+        <v>0.0909947261509329</v>
       </c>
       <c r="C1563">
-        <v>0.9129657557775643</v>
+        <v>0.909005273849067</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
@@ -17584,10 +17584,10 @@
         <v>43627</v>
       </c>
       <c r="B1564">
-        <v>0.08798662427519936</v>
+        <v>0.09198607761049848</v>
       </c>
       <c r="C1564">
-        <v>0.9120133757248006</v>
+        <v>0.9080139223895015</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
@@ -17595,10 +17595,10 @@
         <v>43628</v>
       </c>
       <c r="B1565">
-        <v>0.09063196260727209</v>
+        <v>0.09473916954238736</v>
       </c>
       <c r="C1565">
-        <v>0.9093680373927279</v>
+        <v>0.9052608304576125</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
@@ -17606,10 +17606,10 @@
         <v>43629</v>
       </c>
       <c r="B1566">
-        <v>0.09001153945599011</v>
+        <v>0.09409353961131214</v>
       </c>
       <c r="C1566">
-        <v>0.9099884605440099</v>
+        <v>0.9059064603886879</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
@@ -17617,10 +17617,10 @@
         <v>43630</v>
       </c>
       <c r="B1567">
-        <v>0.08400000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C1567">
-        <v>0.916</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
@@ -17628,10 +17628,10 @@
         <v>43633</v>
       </c>
       <c r="B1568">
-        <v>0.08321156262056746</v>
+        <v>0.08717759118326124</v>
       </c>
       <c r="C1568">
-        <v>0.9167884373794326</v>
+        <v>0.9128224088167387</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
@@ -17639,10 +17639,10 @@
         <v>43634</v>
       </c>
       <c r="B1569">
-        <v>0.08318590152108918</v>
+        <v>0.08715082328995973</v>
       </c>
       <c r="C1569">
-        <v>0.9168140984789108</v>
+        <v>0.9128491767100404</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
@@ -17650,10 +17650,10 @@
         <v>43635</v>
       </c>
       <c r="B1570">
-        <v>0.08336240570963978</v>
+        <v>0.08733493887081688</v>
       </c>
       <c r="C1570">
-        <v>0.9166375942903603</v>
+        <v>0.9126650611291831</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
@@ -17661,10 +17661,10 @@
         <v>43636</v>
       </c>
       <c r="B1571">
-        <v>0.0844527917285013</v>
+        <v>0.08847227071118623</v>
       </c>
       <c r="C1571">
-        <v>0.9155472082714988</v>
+        <v>0.9115277292888138</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
@@ -17672,10 +17672,10 @@
         <v>43637</v>
       </c>
       <c r="B1572">
-        <v>0.079</v>
+        <v>0.082</v>
       </c>
       <c r="C1572">
-        <v>0.921</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
@@ -17683,10 +17683,10 @@
         <v>43640</v>
       </c>
       <c r="B1573">
-        <v>0.07929387931018518</v>
+        <v>0.08230404198653847</v>
       </c>
       <c r="C1573">
-        <v>0.9207061206898147</v>
+        <v>0.9176959580134615</v>
       </c>
     </row>
     <row r="1574" spans="1:3">
@@ -17694,10 +17694,10 @@
         <v>43641</v>
       </c>
       <c r="B1574">
-        <v>0.079394315920938</v>
+        <v>0.08240795011862241</v>
       </c>
       <c r="C1574">
-        <v>0.920605684079062</v>
+        <v>0.9175920498813775</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
@@ -17705,10 +17705,10 @@
         <v>43642</v>
       </c>
       <c r="B1575">
-        <v>0.07863964112941639</v>
+        <v>0.081627169458068</v>
       </c>
       <c r="C1575">
-        <v>0.9213603588705837</v>
+        <v>0.9183728305419321</v>
       </c>
     </row>
     <row r="1576" spans="1:3">
@@ -17716,10 +17716,10 @@
         <v>43643</v>
       </c>
       <c r="B1576">
-        <v>0.07851188962997876</v>
+        <v>0.08149499394288269</v>
       </c>
       <c r="C1576">
-        <v>0.9214881103700213</v>
+        <v>0.9185050060571174</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
@@ -17727,10 +17727,10 @@
         <v>43644</v>
       </c>
       <c r="B1577">
-        <v>0.0792725286471483</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C1577">
-        <v>0.9207274713528516</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="1578" spans="1:3">
@@ -17738,10 +17738,10 @@
         <v>43647</v>
       </c>
       <c r="B1578">
-        <v>0.0789618890603502</v>
+        <v>0.08666192948078594</v>
       </c>
       <c r="C1578">
-        <v>0.9210381109396498</v>
+        <v>0.913338070519214</v>
       </c>
     </row>
     <row r="1579" spans="1:3">
@@ -17749,10 +17749,10 @@
         <v>43648</v>
       </c>
       <c r="B1579">
-        <v>0.0810423388502096</v>
+        <v>0.08892566857762843</v>
       </c>
       <c r="C1579">
-        <v>0.9189576611497904</v>
+        <v>0.9110743314223716</v>
       </c>
     </row>
     <row r="1580" spans="1:3">
@@ -17760,10 +17760,10 @@
         <v>43649</v>
       </c>
       <c r="B1580">
-        <v>0.08092822275508554</v>
+        <v>0.08880152460759524</v>
       </c>
       <c r="C1580">
-        <v>0.9190717772449145</v>
+        <v>0.9111984753924048</v>
       </c>
     </row>
     <row r="1581" spans="1:3">
@@ -17771,10 +17771,10 @@
         <v>43650</v>
       </c>
       <c r="B1581">
-        <v>0.08009712208015593</v>
+        <v>0.08789730105026342</v>
       </c>
       <c r="C1581">
-        <v>0.9199028779198442</v>
+        <v>0.9121026989497366</v>
       </c>
     </row>
     <row r="1582" spans="1:3">
@@ -17782,10 +17782,10 @@
         <v>43651</v>
       </c>
       <c r="B1582">
-        <v>0.07970552291286329</v>
+        <v>0.08747119259169792</v>
       </c>
       <c r="C1582">
-        <v>0.9202944770871367</v>
+        <v>0.9125288074083021</v>
       </c>
     </row>
     <row r="1583" spans="1:3">
@@ -17793,10 +17793,10 @@
         <v>43654</v>
       </c>
       <c r="B1583">
-        <v>0.08009433529302963</v>
+        <v>0.08789426880507926</v>
       </c>
       <c r="C1583">
-        <v>0.9199056647069702</v>
+        <v>0.9121057311949207</v>
       </c>
     </row>
     <row r="1584" spans="1:3">
@@ -17804,10 +17804,10 @@
         <v>43655</v>
       </c>
       <c r="B1584">
-        <v>0.07821461637062982</v>
+        <v>0.08584857800929108</v>
       </c>
       <c r="C1584">
-        <v>0.9217853836293702</v>
+        <v>0.914151421990709</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
@@ -17815,10 +17815,10 @@
         <v>43656</v>
       </c>
       <c r="B1585">
-        <v>0.0781585861856717</v>
+        <v>0.0857875880784605</v>
       </c>
       <c r="C1585">
-        <v>0.9218414138143283</v>
+        <v>0.9142124119215395</v>
       </c>
     </row>
     <row r="1586" spans="1:3">
@@ -17826,10 +17826,10 @@
         <v>43657</v>
       </c>
       <c r="B1586">
-        <v>0.07794040297186332</v>
+        <v>0.085550084570181</v>
       </c>
       <c r="C1586">
-        <v>0.9220595970281367</v>
+        <v>0.914449915429819</v>
       </c>
     </row>
     <row r="1587" spans="1:3">
@@ -17837,10 +17837,10 @@
         <v>43658</v>
       </c>
       <c r="B1587">
-        <v>0.08699999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="C1587">
-        <v>0.913</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
@@ -17848,10 +17848,10 @@
         <v>43661</v>
       </c>
       <c r="B1588">
-        <v>0.08754546372727413</v>
+        <v>0.09257363363724318</v>
       </c>
       <c r="C1588">
-        <v>0.912454536272726</v>
+        <v>0.9074263663627568</v>
       </c>
     </row>
     <row r="1589" spans="1:3">
@@ -17859,10 +17859,10 @@
         <v>43662</v>
       </c>
       <c r="B1589">
-        <v>0.08801731841241482</v>
+        <v>0.09306982499447521</v>
       </c>
       <c r="C1589">
-        <v>0.9119826815875852</v>
+        <v>0.9069301750055249</v>
       </c>
     </row>
     <row r="1590" spans="1:3">
@@ -17870,10 +17870,10 @@
         <v>43663</v>
       </c>
       <c r="B1590">
-        <v>0.08777247092548818</v>
+        <v>0.09281235277960824</v>
       </c>
       <c r="C1590">
-        <v>0.9122275290745119</v>
+        <v>0.9071876472203917</v>
       </c>
     </row>
     <row r="1591" spans="1:3">
@@ -17881,10 +17881,10 @@
         <v>43664</v>
       </c>
       <c r="B1591">
-        <v>0.08773656600382543</v>
+        <v>0.09277459587554757</v>
       </c>
       <c r="C1591">
-        <v>0.9122634339961746</v>
+        <v>0.9072254041244525</v>
       </c>
     </row>
     <row r="1592" spans="1:3">
@@ -17892,10 +17892,10 @@
         <v>43665</v>
       </c>
       <c r="B1592">
-        <v>0.08683703139968503</v>
+        <v>0.09182860741204364</v>
       </c>
       <c r="C1592">
-        <v>0.913162968600315</v>
+        <v>0.9081713925879564</v>
       </c>
     </row>
     <row r="1593" spans="1:3">
@@ -17903,10 +17903,10 @@
         <v>43668</v>
       </c>
       <c r="B1593">
-        <v>0.08762330934923869</v>
+        <v>0.09265549630387544</v>
       </c>
       <c r="C1593">
-        <v>0.9123766906507613</v>
+        <v>0.9073445036961245</v>
       </c>
     </row>
     <row r="1594" spans="1:3">
@@ -17914,10 +17914,10 @@
         <v>43669</v>
       </c>
       <c r="B1594">
-        <v>0.08678830159105758</v>
+        <v>0.09177735803459401</v>
       </c>
       <c r="C1594">
-        <v>0.9132116984089425</v>
+        <v>0.908222641965406</v>
       </c>
     </row>
     <row r="1595" spans="1:3">
@@ -17925,10 +17925,10 @@
         <v>43670</v>
       </c>
       <c r="B1595">
-        <v>0.0870952447555482</v>
+        <v>0.09210016641107185</v>
       </c>
       <c r="C1595">
-        <v>0.9129047552444519</v>
+        <v>0.9078998335889282</v>
       </c>
     </row>
     <row r="1596" spans="1:3">
@@ -17936,10 +17936,10 @@
         <v>43671</v>
       </c>
       <c r="B1596">
-        <v>0.08777516837298324</v>
+        <v>0.09281518935504399</v>
       </c>
       <c r="C1596">
-        <v>0.9122248316270168</v>
+        <v>0.9071848106449559</v>
       </c>
     </row>
     <row r="1597" spans="1:3">
@@ -17947,10 +17947,10 @@
         <v>43672</v>
       </c>
       <c r="B1597">
-        <v>0.08834883062258803</v>
+        <v>0.0934184178577798</v>
       </c>
       <c r="C1597">
-        <v>0.9116511693774119</v>
+        <v>0.9065815821422203</v>
       </c>
     </row>
     <row r="1598" spans="1:3">
@@ -17958,10 +17958,10 @@
         <v>43675</v>
       </c>
       <c r="B1598">
-        <v>0.08848873217370111</v>
+        <v>0.09356552325462486</v>
       </c>
       <c r="C1598">
-        <v>0.911511267826299</v>
+        <v>0.906434476745375</v>
       </c>
     </row>
     <row r="1599" spans="1:3">
@@ -17969,10 +17969,10 @@
         <v>43676</v>
       </c>
       <c r="B1599">
-        <v>0.08841083372172727</v>
+        <v>0.09348361395570015</v>
       </c>
       <c r="C1599">
-        <v>0.9115891662782727</v>
+        <v>0.9065163860442998</v>
       </c>
     </row>
     <row r="1600" spans="1:3">
@@ -17980,10 +17980,10 @@
         <v>43677</v>
       </c>
       <c r="B1600">
-        <v>0.08878192108307331</v>
+        <v>0.09387380071723377</v>
       </c>
       <c r="C1600">
-        <v>0.9112180789169267</v>
+        <v>0.9061261992827662</v>
       </c>
     </row>
     <row r="1601" spans="1:3">
@@ -17991,10 +17991,10 @@
         <v>43678</v>
       </c>
       <c r="B1601">
-        <v>0.0881164851837999</v>
+        <v>0.09317410270514707</v>
       </c>
       <c r="C1601">
-        <v>0.9118835148162</v>
+        <v>0.9068258972948529</v>
       </c>
     </row>
     <row r="1602" spans="1:3">
@@ -18167,10 +18167,10 @@
         <v>43700</v>
       </c>
       <c r="B1617">
-        <v>0.121725024882489</v>
+        <v>0.116</v>
       </c>
       <c r="C1617">
-        <v>0.8782749751175108</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="1618" spans="1:3">
@@ -18178,10 +18178,10 @@
         <v>43703</v>
       </c>
       <c r="B1618">
-        <v>0.1223229497960209</v>
+        <v>0.1165735356647451</v>
       </c>
       <c r="C1618">
-        <v>0.877677050203979</v>
+        <v>0.8834264643352548</v>
       </c>
     </row>
     <row r="1619" spans="1:3">
@@ -18189,10 +18189,10 @@
         <v>43704</v>
       </c>
       <c r="B1619">
-        <v>0.1209136404443781</v>
+        <v>0.1152217705206934</v>
       </c>
       <c r="C1619">
-        <v>0.879086359555622</v>
+        <v>0.8847782294793066</v>
       </c>
     </row>
     <row r="1620" spans="1:3">
@@ -18200,10 +18200,10 @@
         <v>43705</v>
       </c>
       <c r="B1620">
-        <v>0.1224388034365353</v>
+        <v>0.1166846679041371</v>
       </c>
       <c r="C1620">
-        <v>0.8775611965634647</v>
+        <v>0.883315332095863</v>
       </c>
     </row>
     <row r="1621" spans="1:3">
@@ -18211,10 +18211,10 @@
         <v>43706</v>
       </c>
       <c r="B1621">
-        <v>0.1220990576004414</v>
+        <v>0.1163587716895402</v>
       </c>
       <c r="C1621">
-        <v>0.8779009423995587</v>
+        <v>0.8836412283104598</v>
       </c>
     </row>
     <row r="1622" spans="1:3">
@@ -18222,10 +18222,10 @@
         <v>43707</v>
       </c>
       <c r="B1622">
-        <v>0.1218384316455479</v>
+        <v>0.1161087780992704</v>
       </c>
       <c r="C1622">
-        <v>0.8781615683544521</v>
+        <v>0.8838912219007296</v>
       </c>
     </row>
     <row r="1623" spans="1:3">
@@ -18233,10 +18233,10 @@
         <v>43710</v>
       </c>
       <c r="B1623">
-        <v>0.121850491309085</v>
+        <v>0.116120345628896</v>
       </c>
       <c r="C1623">
-        <v>0.878149508690915</v>
+        <v>0.8838796543711039</v>
       </c>
     </row>
     <row r="1624" spans="1:3">
@@ -18244,10 +18244,10 @@
         <v>43711</v>
       </c>
       <c r="B1624">
-        <v>0.1235313482233684</v>
+        <v>0.1177327558710965</v>
       </c>
       <c r="C1624">
-        <v>0.8764686517766317</v>
+        <v>0.8822672441289036</v>
       </c>
     </row>
     <row r="1625" spans="1:3">
@@ -18255,10 +18255,10 @@
         <v>43712</v>
       </c>
       <c r="B1625">
-        <v>0.123859058822703</v>
+        <v>0.1180471554873409</v>
       </c>
       <c r="C1625">
-        <v>0.876140941177297</v>
+        <v>0.8819528445126591</v>
       </c>
     </row>
     <row r="1626" spans="1:3">
@@ -18266,10 +18266,10 @@
         <v>43713</v>
       </c>
       <c r="B1626">
-        <v>0.1248379118097767</v>
+        <v>0.1189863150395128</v>
       </c>
       <c r="C1626">
-        <v>0.8751620881902235</v>
+        <v>0.8810136849604872</v>
       </c>
     </row>
     <row r="1627" spans="1:3">
@@ -18277,10 +18277,10 @@
         <v>43714</v>
       </c>
       <c r="B1627">
-        <v>0.114</v>
+        <v>0.119897907277198</v>
       </c>
       <c r="C1627">
-        <v>0.886</v>
+        <v>0.8801020927228019</v>
       </c>
     </row>
     <row r="1628" spans="1:3">
@@ -18288,10 +18288,10 @@
         <v>43717</v>
       </c>
       <c r="B1628">
-        <v>0.1144498016620847</v>
+        <v>0.1203678184082819</v>
       </c>
       <c r="C1628">
-        <v>0.8855501983379153</v>
+        <v>0.8796321815917181</v>
       </c>
     </row>
     <row r="1629" spans="1:3">
@@ -18299,10 +18299,10 @@
         <v>43718</v>
       </c>
       <c r="B1629">
-        <v>0.115393066696404</v>
+        <v>0.1213531742288934</v>
       </c>
       <c r="C1629">
-        <v>0.8846069333035961</v>
+        <v>0.8786468257711065</v>
       </c>
     </row>
     <row r="1630" spans="1:3">
@@ -18310,10 +18310,10 @@
         <v>43719</v>
       </c>
       <c r="B1630">
-        <v>0.1150554573012954</v>
+        <v>0.1210005123510931</v>
       </c>
       <c r="C1630">
-        <v>0.8849445426987046</v>
+        <v>0.878999487648907</v>
       </c>
     </row>
     <row r="1631" spans="1:3">
@@ -18321,10 +18321,10 @@
         <v>43720</v>
       </c>
       <c r="B1631">
-        <v>0.1143754114018097</v>
+        <v>0.1202901040554656</v>
       </c>
       <c r="C1631">
-        <v>0.8856245885981904</v>
+        <v>0.8797098959445344</v>
       </c>
     </row>
     <row r="1632" spans="1:3">
@@ -18332,10 +18332,10 @@
         <v>43724</v>
       </c>
       <c r="B1632">
-        <v>0.1153596509994911</v>
+        <v>0.1213182692964927</v>
       </c>
       <c r="C1632">
-        <v>0.8846403490005089</v>
+        <v>0.8786817307035073</v>
       </c>
     </row>
     <row r="1633" spans="1:3">
@@ -18343,10 +18343,10 @@
         <v>43725</v>
       </c>
       <c r="B1633">
-        <v>0.1151053351427207</v>
+        <v>0.1210526148961977</v>
       </c>
       <c r="C1633">
-        <v>0.8848946648572793</v>
+        <v>0.8789473851038022</v>
       </c>
     </row>
     <row r="1634" spans="1:3">
@@ -18354,10 +18354,10 @@
         <v>43726</v>
       </c>
       <c r="B1634">
-        <v>0.1132896807892023</v>
+        <v>0.1191557812592572</v>
       </c>
       <c r="C1634">
-        <v>0.8867103192107978</v>
+        <v>0.8808442187407428</v>
       </c>
     </row>
     <row r="1635" spans="1:3">
@@ -18365,10 +18365,10 @@
         <v>43727</v>
       </c>
       <c r="B1635">
-        <v>0.1136967847063911</v>
+        <v>0.1195811220830866</v>
       </c>
       <c r="C1635">
-        <v>0.8863032152936089</v>
+        <v>0.8804188779169134</v>
       </c>
     </row>
     <row r="1636" spans="1:3">
@@ -18376,10 +18376,10 @@
         <v>43728</v>
       </c>
       <c r="B1636">
-        <v>0.1142233036593375</v>
+        <v>0.1201311973509984</v>
       </c>
       <c r="C1636">
-        <v>0.8857766963406626</v>
+        <v>0.8798688026490016</v>
       </c>
     </row>
     <row r="1637" spans="1:3">
@@ -18387,10 +18387,10 @@
         <v>43731</v>
       </c>
       <c r="B1637">
-        <v>0.122</v>
+        <v>0.1204382186708907</v>
       </c>
       <c r="C1637">
-        <v>0.878</v>
+        <v>0.8795617813291093</v>
       </c>
     </row>
     <row r="1638" spans="1:3">
@@ -18398,10 +18398,10 @@
         <v>43732</v>
       </c>
       <c r="B1638">
-        <v>0.1208799251336284</v>
+        <v>0.1193305336399479</v>
       </c>
       <c r="C1638">
-        <v>0.8791200748663716</v>
+        <v>0.8806694663600521</v>
       </c>
     </row>
     <row r="1639" spans="1:3">
@@ -18409,10 +18409,10 @@
         <v>43733</v>
       </c>
       <c r="B1639">
-        <v>0.1211533978828945</v>
+        <v>0.1196009780010352</v>
       </c>
       <c r="C1639">
-        <v>0.8788466021171055</v>
+        <v>0.8803990219989648</v>
       </c>
     </row>
     <row r="1640" spans="1:3">
@@ -18420,10 +18420,10 @@
         <v>43734</v>
       </c>
       <c r="B1640">
-        <v>0.1200799895122902</v>
+        <v>0.1185394687426976</v>
       </c>
       <c r="C1640">
-        <v>0.8799200104877097</v>
+        <v>0.8814605312573024</v>
       </c>
     </row>
     <row r="1641" spans="1:3">
@@ -18431,10 +18431,10 @@
         <v>43735</v>
       </c>
       <c r="B1641">
-        <v>0.1188990211887364</v>
+        <v>0.117371630257343</v>
       </c>
       <c r="C1641">
-        <v>0.8811009788112636</v>
+        <v>0.882628369742657</v>
       </c>
     </row>
     <row r="1642" spans="1:3">
@@ -18442,10 +18442,10 @@
         <v>43738</v>
       </c>
       <c r="B1642">
-        <v>0.1193456062177023</v>
+        <v>0.1178132454888743</v>
       </c>
       <c r="C1642">
-        <v>0.8806543937822976</v>
+        <v>0.8821867545111256</v>
       </c>
     </row>
     <row r="1643" spans="1:3">
@@ -18453,10 +18453,10 @@
         <v>43746</v>
       </c>
       <c r="B1643">
-        <v>0.118188764443809</v>
+        <v>0.1166692894123148</v>
       </c>
       <c r="C1643">
-        <v>0.881811235556191</v>
+        <v>0.8833307105876852</v>
       </c>
     </row>
     <row r="1644" spans="1:3">
@@ -18464,10 +18464,10 @@
         <v>43747</v>
       </c>
       <c r="B1644">
-        <v>0.1185666825332165</v>
+        <v>0.117042993746802</v>
       </c>
       <c r="C1644">
-        <v>0.8814333174667836</v>
+        <v>0.882957006253198</v>
       </c>
     </row>
     <row r="1645" spans="1:3">
@@ -18475,10 +18475,10 @@
         <v>43748</v>
       </c>
       <c r="B1645">
-        <v>0.1188463433904322</v>
+        <v>0.1173195390602568</v>
       </c>
       <c r="C1645">
-        <v>0.8811536566095677</v>
+        <v>0.8826804609397433</v>
       </c>
     </row>
     <row r="1646" spans="1:3">
@@ -18486,10 +18486,10 @@
         <v>43749</v>
       </c>
       <c r="B1646">
-        <v>0.1198278250052236</v>
+        <v>0.1182901043880349</v>
       </c>
       <c r="C1646">
-        <v>0.8801721749947765</v>
+        <v>0.8817098956119651</v>
       </c>
     </row>
     <row r="1647" spans="1:3">
@@ -18497,10 +18497,10 @@
         <v>43752</v>
       </c>
       <c r="B1647">
-        <v>0.114</v>
+        <v>0.1191360173394713</v>
       </c>
       <c r="C1647">
-        <v>0.886</v>
+        <v>0.8808639826605288</v>
       </c>
     </row>
     <row r="1648" spans="1:3">
@@ -18508,10 +18508,10 @@
         <v>43753</v>
       </c>
       <c r="B1648">
-        <v>0.1152044222807371</v>
+        <v>0.1203873291417671</v>
       </c>
       <c r="C1648">
-        <v>0.8847955777192629</v>
+        <v>0.8796126708582328</v>
       </c>
     </row>
     <row r="1649" spans="1:3">
@@ -18519,10 +18519,10 @@
         <v>43754</v>
       </c>
       <c r="B1649">
-        <v>0.1145525220969582</v>
+        <v>0.1197100687745554</v>
       </c>
       <c r="C1649">
-        <v>0.8854474779030417</v>
+        <v>0.8802899312254446</v>
       </c>
     </row>
     <row r="1650" spans="1:3">
@@ -18530,10 +18530,10 @@
         <v>43755</v>
       </c>
       <c r="B1650">
-        <v>0.1141770243373508</v>
+        <v>0.1193199430426937</v>
       </c>
       <c r="C1650">
-        <v>0.8858229756626492</v>
+        <v>0.8806800569573062</v>
       </c>
     </row>
     <row r="1651" spans="1:3">
@@ -18541,10 +18541,10 @@
         <v>43756</v>
       </c>
       <c r="B1651">
-        <v>0.1141688208565606</v>
+        <v>0.119311419819032</v>
       </c>
       <c r="C1651">
-        <v>0.8858311791434395</v>
+        <v>0.8806885801809679</v>
       </c>
     </row>
     <row r="1652" spans="1:3">
@@ -18552,10 +18552,10 @@
         <v>43759</v>
       </c>
       <c r="B1652">
-        <v>0.1127542186522496</v>
+        <v>0.1178415750476562</v>
       </c>
       <c r="C1652">
-        <v>0.8872457813477505</v>
+        <v>0.8821584249523439</v>
       </c>
     </row>
     <row r="1653" spans="1:3">
@@ -18563,10 +18563,10 @@
         <v>43760</v>
       </c>
       <c r="B1653">
-        <v>0.1129522709123612</v>
+        <v>0.1180473743085422</v>
       </c>
       <c r="C1653">
-        <v>0.8870477290876387</v>
+        <v>0.8819526256914578</v>
       </c>
     </row>
     <row r="1654" spans="1:3">
@@ -18574,10 +18574,10 @@
         <v>43761</v>
       </c>
       <c r="B1654">
-        <v>0.1135564582009614</v>
+        <v>0.1186751693406091</v>
       </c>
       <c r="C1654">
-        <v>0.8864435417990385</v>
+        <v>0.8813248306593909</v>
       </c>
     </row>
     <row r="1655" spans="1:3">
@@ -18585,10 +18585,10 @@
         <v>43762</v>
       </c>
       <c r="B1655">
-        <v>0.112885115027621</v>
+        <v>0.1179775920225936</v>
       </c>
       <c r="C1655">
-        <v>0.887114884972379</v>
+        <v>0.8820224079774065</v>
       </c>
     </row>
     <row r="1656" spans="1:3">
@@ -18596,10 +18596,10 @@
         <v>43763</v>
       </c>
       <c r="B1656">
-        <v>0.1128373739938093</v>
+        <v>0.1179279835936223</v>
       </c>
       <c r="C1656">
-        <v>0.8871626260061908</v>
+        <v>0.8820720164063777</v>
       </c>
     </row>
     <row r="1657" spans="1:3">
@@ -18607,10 +18607,10 @@
         <v>43766</v>
       </c>
       <c r="B1657">
-        <v>0.12</v>
+        <v>0.123</v>
       </c>
       <c r="C1657">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="1658" spans="1:3">
@@ -18618,10 +18618,10 @@
         <v>43767</v>
       </c>
       <c r="B1658">
-        <v>0.1211286064161942</v>
+        <v>0.1241528409035073</v>
       </c>
       <c r="C1658">
-        <v>0.8788713935838058</v>
+        <v>0.8758471590964928</v>
       </c>
     </row>
     <row r="1659" spans="1:3">
@@ -18629,10 +18629,10 @@
         <v>43768</v>
       </c>
       <c r="B1659">
-        <v>0.120477041001633</v>
+        <v>0.1234872934896803</v>
       </c>
       <c r="C1659">
-        <v>0.879522958998367</v>
+        <v>0.8765127065103198</v>
       </c>
     </row>
     <row r="1660" spans="1:3">
@@ -18640,10 +18640,10 @@
         <v>43769</v>
       </c>
       <c r="B1660">
-        <v>0.1198800959222147</v>
+        <v>0.1228775168860468</v>
       </c>
       <c r="C1660">
-        <v>0.8801199040777853</v>
+        <v>0.8771224831139531</v>
       </c>
     </row>
     <row r="1661" spans="1:3">
@@ -18651,10 +18651,10 @@
         <v>43770</v>
       </c>
       <c r="B1661">
-        <v>0.1196680265465071</v>
+        <v>0.1226608840328198</v>
       </c>
       <c r="C1661">
-        <v>0.8803319734534929</v>
+        <v>0.8773391159671802</v>
       </c>
     </row>
     <row r="1662" spans="1:3">
@@ -18662,10 +18662,10 @@
         <v>43773</v>
       </c>
       <c r="B1662">
-        <v>0.1212287909591276</v>
+        <v>0.1242551731298852</v>
       </c>
       <c r="C1662">
-        <v>0.8787712090408725</v>
+        <v>0.8757448268701149</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
@@ -18673,10 +18673,10 @@
         <v>43774</v>
       </c>
       <c r="B1663">
-        <v>0.1218645759287107</v>
+        <v>0.1249045740183461</v>
       </c>
       <c r="C1663">
-        <v>0.8781354240712892</v>
+        <v>0.875095425981654</v>
       </c>
     </row>
     <row r="1664" spans="1:3">
@@ -18684,10 +18684,10 @@
         <v>43775</v>
       </c>
       <c r="B1664">
-        <v>0.12250927126545</v>
+        <v>0.1255630521448491</v>
       </c>
       <c r="C1664">
-        <v>0.87749072873455</v>
+        <v>0.874436947855151</v>
       </c>
     </row>
     <row r="1665" spans="1:3">
@@ -18695,10 +18695,10 @@
         <v>43776</v>
       </c>
       <c r="B1665">
-        <v>0.1218082655554011</v>
+        <v>0.1248470586534948</v>
       </c>
       <c r="C1665">
-        <v>0.8781917344445989</v>
+        <v>0.8751529413465051</v>
       </c>
     </row>
     <row r="1666" spans="1:3">
@@ -18706,10 +18706,10 @@
         <v>43777</v>
       </c>
       <c r="B1666">
-        <v>0.122066907235155</v>
+        <v>0.125111233515075</v>
       </c>
       <c r="C1666">
-        <v>0.877933092764845</v>
+        <v>0.8748887664849249</v>
       </c>
     </row>
     <row r="1667" spans="1:3">
@@ -19047,10 +19047,10 @@
         <v>43822</v>
       </c>
       <c r="B1697">
-        <v>0.1520579688343224</v>
+        <v>0.147</v>
       </c>
       <c r="C1697">
-        <v>0.8479420311656776</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="1698" spans="1:3">
@@ -19058,10 +19058,10 @@
         <v>43823</v>
       </c>
       <c r="B1698">
-        <v>0.1501154868151658</v>
+        <v>0.1451110740496283</v>
       </c>
       <c r="C1698">
-        <v>0.8498845131848342</v>
+        <v>0.8548889259503717</v>
       </c>
     </row>
     <row r="1699" spans="1:3">
@@ -19069,10 +19069,10 @@
         <v>43824</v>
       </c>
       <c r="B1699">
-        <v>0.151112876371303</v>
+        <v>0.1460809286743233</v>
       </c>
       <c r="C1699">
-        <v>0.848887123628697</v>
+        <v>0.8539190713256766</v>
       </c>
     </row>
     <row r="1700" spans="1:3">
@@ -19080,10 +19080,10 @@
         <v>43825</v>
       </c>
       <c r="B1700">
-        <v>0.1511081507417943</v>
+        <v>0.1460763333263268</v>
       </c>
       <c r="C1700">
-        <v>0.8488918492582056</v>
+        <v>0.8539236666736733</v>
       </c>
     </row>
     <row r="1701" spans="1:3">
@@ -19091,10 +19091,10 @@
         <v>43826</v>
       </c>
       <c r="B1701">
-        <v>0.152084100142367</v>
+        <v>0.1470254128055049</v>
       </c>
       <c r="C1701">
-        <v>0.847915899857633</v>
+        <v>0.852974587194495</v>
       </c>
     </row>
     <row r="1702" spans="1:3">
@@ -19102,10 +19102,10 @@
         <v>43829</v>
       </c>
       <c r="B1702">
-        <v>0.146</v>
+        <v>0.1466476233797818</v>
       </c>
       <c r="C1702">
-        <v>0.854</v>
+        <v>0.8533523766202182</v>
       </c>
     </row>
     <row r="1703" spans="1:3">
@@ -19113,10 +19113,10 @@
         <v>43830</v>
       </c>
       <c r="B1703">
-        <v>0.1477279184450199</v>
+        <v>0.1483818747558704</v>
       </c>
       <c r="C1703">
-        <v>0.8522720815549801</v>
+        <v>0.8516181252441295</v>
       </c>
     </row>
     <row r="1704" spans="1:3">
@@ -19124,10 +19124,10 @@
         <v>43832</v>
       </c>
       <c r="B1704">
-        <v>0.1481850390244416</v>
+        <v>0.1488406655043309</v>
       </c>
       <c r="C1704">
-        <v>0.8518149609755584</v>
+        <v>0.8511593344956689</v>
       </c>
     </row>
     <row r="1705" spans="1:3">
@@ -19135,10 +19135,10 @@
         <v>43833</v>
       </c>
       <c r="B1705">
-        <v>0.1500447198440745</v>
+        <v>0.1507071185290299</v>
       </c>
       <c r="C1705">
-        <v>0.8499552801559255</v>
+        <v>0.8492928814709702</v>
       </c>
     </row>
     <row r="1706" spans="1:3">
@@ -19146,10 +19146,10 @@
         <v>43836</v>
       </c>
       <c r="B1706">
-        <v>0.149973706748137</v>
+        <v>0.1506358474942706</v>
       </c>
       <c r="C1706">
-        <v>0.850026293251863</v>
+        <v>0.8493641525057294</v>
       </c>
     </row>
     <row r="1707" spans="1:3">
@@ -19157,10 +19157,10 @@
         <v>43837</v>
       </c>
       <c r="B1707">
-        <v>0.1498418913597253</v>
+        <v>0.1505035531772511</v>
       </c>
       <c r="C1707">
-        <v>0.8501581086402746</v>
+        <v>0.8494964468227488</v>
       </c>
     </row>
     <row r="1708" spans="1:3">
@@ -19168,10 +19168,10 @@
         <v>43838</v>
       </c>
       <c r="B1708">
-        <v>0.1508992588312693</v>
+        <v>0.1515647573106108</v>
       </c>
       <c r="C1708">
-        <v>0.8491007411687306</v>
+        <v>0.8484352426893892</v>
       </c>
     </row>
     <row r="1709" spans="1:3">
@@ -19179,10 +19179,10 @@
         <v>43839</v>
       </c>
       <c r="B1709">
-        <v>0.1493048940811888</v>
+        <v>0.149964602938981</v>
       </c>
       <c r="C1709">
-        <v>0.8506951059188113</v>
+        <v>0.8500353970610189</v>
       </c>
     </row>
     <row r="1710" spans="1:3">
@@ -19190,10 +19190,10 @@
         <v>43840</v>
       </c>
       <c r="B1710">
-        <v>0.1509031787266703</v>
+        <v>0.1515686914076807</v>
       </c>
       <c r="C1710">
-        <v>0.8490968212733296</v>
+        <v>0.8484313085923193</v>
       </c>
     </row>
     <row r="1711" spans="1:3">
@@ -19201,10 +19201,10 @@
         <v>43843</v>
       </c>
       <c r="B1711">
-        <v>0.1507032115059883</v>
+        <v>0.1513679995071157</v>
       </c>
       <c r="C1711">
-        <v>0.8492967884940117</v>
+        <v>0.8486320004928845</v>
       </c>
     </row>
     <row r="1712" spans="1:3">
@@ -19212,10 +19212,10 @@
         <v>43844</v>
       </c>
       <c r="B1712">
-        <v>0.1519959750424038</v>
+        <v>0.1526654406457887</v>
       </c>
       <c r="C1712">
-        <v>0.8480040249575962</v>
+        <v>0.8473345593542114</v>
       </c>
     </row>
     <row r="1713" spans="1:3">
@@ -19223,10 +19223,10 @@
         <v>43845</v>
       </c>
       <c r="B1713">
-        <v>0.151557288085547</v>
+        <v>0.152225168342366</v>
       </c>
       <c r="C1713">
-        <v>0.8484427119144531</v>
+        <v>0.8477748316576341</v>
       </c>
     </row>
     <row r="1714" spans="1:3">
@@ -19234,10 +19234,10 @@
         <v>43846</v>
       </c>
       <c r="B1714">
-        <v>0.1509570726860641</v>
+        <v>0.151622780607107</v>
       </c>
       <c r="C1714">
-        <v>0.8490429273139358</v>
+        <v>0.8483772193928931</v>
       </c>
     </row>
     <row r="1715" spans="1:3">
@@ -19245,10 +19245,10 @@
         <v>43847</v>
       </c>
       <c r="B1715">
-        <v>0.1505098305277105</v>
+        <v>0.151173917320935</v>
       </c>
       <c r="C1715">
-        <v>0.8494901694722895</v>
+        <v>0.848826082679065</v>
       </c>
     </row>
     <row r="1716" spans="1:3">
@@ -19256,10 +19256,10 @@
         <v>43850</v>
       </c>
       <c r="B1716">
-        <v>0.1505111697838367</v>
+        <v>0.1511752614346033</v>
       </c>
       <c r="C1716">
-        <v>0.8494888302161633</v>
+        <v>0.8488247385653966</v>
       </c>
     </row>
     <row r="1717" spans="1:3">
@@ -19267,10 +19267,10 @@
         <v>43851</v>
       </c>
       <c r="B1717">
-        <v>0.1515347681581131</v>
+        <v>0.1522025669772687</v>
       </c>
       <c r="C1717">
-        <v>0.8484652318418867</v>
+        <v>0.8477974330227311</v>
       </c>
     </row>
     <row r="1718" spans="1:3">
@@ -19278,10 +19278,10 @@
         <v>43852</v>
       </c>
       <c r="B1718">
-        <v>0.149413246731518</v>
+        <v>0.1500733498899621</v>
       </c>
       <c r="C1718">
-        <v>0.850586753268482</v>
+        <v>0.8499266501100379</v>
       </c>
     </row>
     <row r="1719" spans="1:3">
@@ -19289,10 +19289,10 @@
         <v>43853</v>
       </c>
       <c r="B1719">
-        <v>0.150018309971626</v>
+        <v>0.1506806127349034</v>
       </c>
       <c r="C1719">
-        <v>0.849981690028374</v>
+        <v>0.8493193872650967</v>
       </c>
     </row>
     <row r="1720" spans="1:3">
@@ -19300,10 +19300,10 @@
         <v>43864</v>
       </c>
       <c r="B1720">
-        <v>0.1457947662259376</v>
+        <v>0.1464416353425645</v>
       </c>
       <c r="C1720">
-        <v>0.8542052337740624</v>
+        <v>0.8535583646574355</v>
       </c>
     </row>
     <row r="1721" spans="1:3">
@@ -19311,10 +19311,10 @@
         <v>43865</v>
       </c>
       <c r="B1721">
-        <v>0.1347674568354342</v>
+        <v>0.1353731532598433</v>
       </c>
       <c r="C1721">
-        <v>0.8652325431645658</v>
+        <v>0.8646268467401567</v>
       </c>
     </row>
     <row r="1722" spans="1:3">
@@ -19322,10 +19322,10 @@
         <v>43866</v>
       </c>
       <c r="B1722">
-        <v>0.141</v>
+        <v>0.1381970777679093</v>
       </c>
       <c r="C1722">
-        <v>0.859</v>
+        <v>0.8618029222320907</v>
       </c>
     </row>
     <row r="1723" spans="1:3">
@@ -19333,10 +19333,10 @@
         <v>43867</v>
       </c>
       <c r="B1723">
-        <v>0.1427802137262347</v>
+        <v>0.1399476683319781</v>
       </c>
       <c r="C1723">
-        <v>0.8572197862737654</v>
+        <v>0.860052331668022</v>
       </c>
     </row>
     <row r="1724" spans="1:3">
@@ -19344,10 +19344,10 @@
         <v>43868</v>
       </c>
       <c r="B1724">
-        <v>0.1453958079719156</v>
+        <v>0.1425200001695947</v>
       </c>
       <c r="C1724">
-        <v>0.8546041920280845</v>
+        <v>0.8574799998304052</v>
       </c>
     </row>
     <row r="1725" spans="1:3">
@@ -19355,10 +19355,10 @@
         <v>43871</v>
       </c>
       <c r="B1725">
-        <v>0.1455449665756524</v>
+        <v>0.1426667010492397</v>
       </c>
       <c r="C1725">
-        <v>0.8544550334243475</v>
+        <v>0.8573332989507603</v>
       </c>
     </row>
     <row r="1726" spans="1:3">
@@ -19366,10 +19366,10 @@
         <v>43872</v>
       </c>
       <c r="B1726">
-        <v>0.1461473872040206</v>
+        <v>0.1432592057467966</v>
       </c>
       <c r="C1726">
-        <v>0.8538526127959795</v>
+        <v>0.8567407942532034</v>
       </c>
     </row>
     <row r="1727" spans="1:3">
@@ -19377,10 +19377,10 @@
         <v>43873</v>
       </c>
       <c r="B1727">
-        <v>0.138</v>
+        <v>0.136</v>
       </c>
       <c r="C1727">
-        <v>0.862</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="1728" spans="1:3">
@@ -19388,10 +19388,10 @@
         <v>43874</v>
       </c>
       <c r="B1728">
-        <v>0.1392742503324844</v>
+        <v>0.137258723552625</v>
       </c>
       <c r="C1728">
-        <v>0.8607257496675156</v>
+        <v>0.8627412764473751</v>
       </c>
     </row>
     <row r="1729" spans="1:3">
@@ -19399,10 +19399,10 @@
         <v>43875</v>
       </c>
       <c r="B1729">
-        <v>0.1384276795296528</v>
+        <v>0.1364224622281281</v>
       </c>
       <c r="C1729">
-        <v>0.8615723204703473</v>
+        <v>0.8635775377718717</v>
       </c>
     </row>
     <row r="1730" spans="1:3">
@@ -19410,10 +19410,10 @@
         <v>43878</v>
       </c>
       <c r="B1730">
-        <v>0.1390991741251937</v>
+        <v>0.1370857774582512</v>
       </c>
       <c r="C1730">
-        <v>0.8609008258748064</v>
+        <v>0.8629142225417488</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
@@ -19421,10 +19421,10 @@
         <v>43879</v>
       </c>
       <c r="B1731">
-        <v>0.142087717550998</v>
+        <v>0.1400380996026573</v>
       </c>
       <c r="C1731">
-        <v>0.8579122824490021</v>
+        <v>0.8599619003973427</v>
       </c>
     </row>
     <row r="1732" spans="1:3">
@@ -19432,10 +19432,417 @@
         <v>43880</v>
       </c>
       <c r="B1732">
-        <v>0.138</v>
+        <v>0.134</v>
       </c>
       <c r="C1732">
-        <v>0.862</v>
+        <v>0.866</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:3">
+      <c r="A1733" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B1733">
+        <v>0.1335541075319747</v>
+      </c>
+      <c r="C1733">
+        <v>0.8664458924680253</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:3">
+      <c r="A1734" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B1734">
+        <v>0.1360932000308904</v>
+      </c>
+      <c r="C1734">
+        <v>0.8639067999691097</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:3">
+      <c r="A1735" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B1735">
+        <v>0.1365540281120855</v>
+      </c>
+      <c r="C1735">
+        <v>0.8634459718879144</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:3">
+      <c r="A1736" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B1736">
+        <v>0.1365010714655655</v>
+      </c>
+      <c r="C1736">
+        <v>0.8634989285344346</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:3">
+      <c r="A1737" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B1737">
+        <v>0.1364107328362737</v>
+      </c>
+      <c r="C1737">
+        <v>0.8635892671637264</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:3">
+      <c r="A1738" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B1738">
+        <v>0.1344984795606703</v>
+      </c>
+      <c r="C1738">
+        <v>0.8655015204393297</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:3">
+      <c r="A1739" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B1739">
+        <v>0.1347265799998893</v>
+      </c>
+      <c r="C1739">
+        <v>0.8652734200001108</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:3">
+      <c r="A1740" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B1740">
+        <v>0.1299257159202402</v>
+      </c>
+      <c r="C1740">
+        <v>0.8700742840797597</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:3">
+      <c r="A1741" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B1741">
+        <v>0.133695656091062</v>
+      </c>
+      <c r="C1741">
+        <v>0.8663043439089378</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:3">
+      <c r="A1742" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B1742">
+        <v>0.125</v>
+      </c>
+      <c r="C1742">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:3">
+      <c r="A1743" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B1743">
+        <v>0.1253702327906362</v>
+      </c>
+      <c r="C1743">
+        <v>0.8746297672093639</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:3">
+      <c r="A1744" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B1744">
+        <v>0.1275785436966976</v>
+      </c>
+      <c r="C1744">
+        <v>0.8724214563033025</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:3">
+      <c r="A1745" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B1745">
+        <v>0.1259609956175156</v>
+      </c>
+      <c r="C1745">
+        <v>0.8740390043824845</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:3">
+      <c r="A1746" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B1746">
+        <v>0.1215736902255023</v>
+      </c>
+      <c r="C1746">
+        <v>0.8784263097744976</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:3">
+      <c r="A1747" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B1747">
+        <v>0.1240864043665491</v>
+      </c>
+      <c r="C1747">
+        <v>0.8759135956334508</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:3">
+      <c r="A1748" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1748">
+        <v>0.1226210153011193</v>
+      </c>
+      <c r="C1748">
+        <v>0.8773789846988806</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:3">
+      <c r="A1749" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B1749">
+        <v>0.120630523960511</v>
+      </c>
+      <c r="C1749">
+        <v>0.8793694760394889</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:3">
+      <c r="A1750" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B1750">
+        <v>0.1193932458091394</v>
+      </c>
+      <c r="C1750">
+        <v>0.8806067541908605</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:3">
+      <c r="A1751" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B1751">
+        <v>0.114754684331553</v>
+      </c>
+      <c r="C1751">
+        <v>0.885245315668447</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:3">
+      <c r="A1752" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B1752">
+        <v>0.128</v>
+      </c>
+      <c r="C1752">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:3">
+      <c r="A1753" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B1753">
+        <v>0.1258945971312599</v>
+      </c>
+      <c r="C1753">
+        <v>0.8741054028687402</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:3">
+      <c r="A1754" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B1754">
+        <v>0.1250726807032675</v>
+      </c>
+      <c r="C1754">
+        <v>0.8749273192967325</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:3">
+      <c r="A1755" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B1755">
+        <v>0.1268108598656905</v>
+      </c>
+      <c r="C1755">
+        <v>0.8731891401343095</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:3">
+      <c r="A1756" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B1756">
+        <v>0.1226628237605226</v>
+      </c>
+      <c r="C1756">
+        <v>0.8773371762394774</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:3">
+      <c r="A1757" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B1757">
+        <v>0.1252829524472792</v>
+      </c>
+      <c r="C1757">
+        <v>0.8747170475527208</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:3">
+      <c r="A1758" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B1758">
+        <v>0.128103253715811</v>
+      </c>
+      <c r="C1758">
+        <v>0.871896746284189</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:3">
+      <c r="A1759" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B1759">
+        <v>0.1271747838646845</v>
+      </c>
+      <c r="C1759">
+        <v>0.8728252161353155</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:3">
+      <c r="A1760" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B1760">
+        <v>0.1272079344217439</v>
+      </c>
+      <c r="C1760">
+        <v>0.8727920655782561</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:3">
+      <c r="A1761" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B1761">
+        <v>0.1257606101090259</v>
+      </c>
+      <c r="C1761">
+        <v>0.8742393898909742</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:3">
+      <c r="A1762" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B1762">
+        <v>0.126041603623693</v>
+      </c>
+      <c r="C1762">
+        <v>0.873958396376307</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:3">
+      <c r="A1763" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B1763">
+        <v>0.1255537115430275</v>
+      </c>
+      <c r="C1763">
+        <v>0.8744462884569724</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:3">
+      <c r="A1764" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B1764">
+        <v>0.1275325307673267</v>
+      </c>
+      <c r="C1764">
+        <v>0.8724674692326733</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:3">
+      <c r="A1765" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B1765">
+        <v>0.1268397125479142</v>
+      </c>
+      <c r="C1765">
+        <v>0.8731602874520857</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:3">
+      <c r="A1766" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B1766">
+        <v>0.1290354791215342</v>
+      </c>
+      <c r="C1766">
+        <v>0.8709645208784658</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:3">
+      <c r="A1767" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B1767">
+        <v>0.124</v>
+      </c>
+      <c r="C1767">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:3">
+      <c r="A1768" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B1768">
+        <v>0.124394789559983</v>
+      </c>
+      <c r="C1768">
+        <v>0.875605210440017</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:3">
+      <c r="A1769" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B1769">
+        <v>0.123286971396664</v>
+      </c>
+      <c r="C1769">
+        <v>0.8767130286033359</v>
       </c>
     </row>
   </sheetData>
